--- a/Pakaasa.xlsx
+++ b/Pakaasa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\paakasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685F9987-25CB-4C21-A31B-6E8788E95D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8CA9BF-63A6-4995-B284-5F2D2F9B343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,15 +70,6 @@
     <t>contactTitle</t>
   </si>
   <si>
-    <t>employees.lastName</t>
-  </si>
-  <si>
-    <t>employees.firstName</t>
-  </si>
-  <si>
-    <t>employees.title</t>
-  </si>
-  <si>
     <t>productName</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>quantityPerUnit</t>
   </si>
   <si>
-    <t>unitPrice.1</t>
-  </si>
-  <si>
     <t>unitsInStock</t>
   </si>
   <si>
@@ -907,16 +895,28 @@
     <t>Specialty Biscuits Ltd</t>
   </si>
   <si>
-    <t>supplier.companyName</t>
-  </si>
-  <si>
-    <t>supplier.contactName</t>
-  </si>
-  <si>
-    <t>supplier.contactTitle</t>
-  </si>
-  <si>
-    <t>product.unitPrice</t>
+    <t>employeesTitle</t>
+  </si>
+  <si>
+    <t>employeesFirstName</t>
+  </si>
+  <si>
+    <t>employeesLastName</t>
+  </si>
+  <si>
+    <t>productUnitPrice</t>
+  </si>
+  <si>
+    <t>unitPriceOne</t>
+  </si>
+  <si>
+    <t>supplierCompanyName</t>
+  </si>
+  <si>
+    <t>supplierContactName</t>
+  </si>
+  <si>
+    <t>supplierContactTitle</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W96"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,55 +1856,55 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>10272</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
@@ -1945,25 +1945,25 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="T2" s="1">
         <v>14</v>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W2" s="1">
         <v>34.799999999999997</v>
@@ -1993,16 +1993,16 @@
         <v>0</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>10249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -2043,25 +2043,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T3" s="1">
         <v>6</v>
@@ -2070,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W3" s="1">
         <v>23.25</v>
@@ -2091,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -2108,7 +2108,7 @@
         <v>10249</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -2141,25 +2141,25 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T4" s="1">
         <v>24</v>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W4" s="1">
         <v>53</v>
@@ -2189,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>10250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2239,25 +2239,25 @@
         <v>0.15</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T5" s="1">
         <v>24</v>
@@ -2266,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W5" s="1">
         <v>53</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>10255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
@@ -2337,25 +2337,25 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="T6" s="1">
         <v>28</v>
@@ -2364,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W6" s="1">
         <v>55</v>
@@ -2385,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>10250</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -2435,25 +2435,25 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T7" s="1">
         <v>19</v>
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W7" s="1">
         <v>9.65</v>
@@ -2483,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>10255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -2533,25 +2533,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T8" s="1">
         <v>7</v>
@@ -2560,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W8" s="1">
         <v>17.45</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
         <v>10253</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2631,25 +2631,25 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T9" s="1">
         <v>14</v>
@@ -2658,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W9" s="1">
         <v>12.5</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>10272</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
@@ -2729,25 +2729,25 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T10" s="1">
         <v>14</v>
@@ -2756,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W10" s="1">
         <v>12.5</v>
@@ -2777,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>10253</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -2827,25 +2827,25 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="T11" s="1">
         <v>23</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W11" s="1">
         <v>20</v>
@@ -2875,16 +2875,16 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>10272</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
@@ -2925,25 +2925,25 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T12" s="1">
         <v>8</v>
@@ -2952,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W12" s="1">
         <v>81</v>
@@ -2973,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>10255</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1">
         <v>9</v>
@@ -3023,25 +3023,25 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T13" s="1">
         <v>17</v>
@@ -3050,7 +3050,7 @@
         <v>8</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W13" s="1">
         <v>19</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>10273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -3121,25 +3121,25 @@
         <v>0.05</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T14" s="1">
         <v>4</v>
@@ -3148,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W14" s="1">
         <v>31</v>
@@ -3169,16 +3169,16 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>10273</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -3219,25 +3219,25 @@
         <v>0.05</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T15" s="1">
         <v>14</v>
@@ -3246,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W15" s="1">
         <v>12.5</v>
@@ -3267,16 +3267,16 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>10273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -3317,25 +3317,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="T16" s="1">
         <v>15</v>
@@ -3344,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W16" s="1">
         <v>2.5</v>
@@ -3365,16 +3365,16 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -3382,7 +3382,7 @@
         <v>10273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -3415,25 +3415,25 @@
         <v>0.05</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T17" s="1">
         <v>19</v>
@@ -3442,7 +3442,7 @@
         <v>8</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W17" s="1">
         <v>18.399999999999999</v>
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>10273</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -3513,25 +3513,25 @@
         <v>0.05</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T18" s="1">
         <v>23</v>
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="W18" s="1">
         <v>18</v>
@@ -3561,16 +3561,16 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
         <v>10276</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
@@ -3611,25 +3611,25 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T19" s="1">
         <v>4</v>
@@ -3638,7 +3638,7 @@
         <v>8</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W19" s="1">
         <v>31</v>
@@ -3659,16 +3659,16 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>10276</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="T20" s="1">
         <v>6</v>
@@ -3736,7 +3736,7 @@
         <v>8</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W20" s="1">
         <v>6</v>
@@ -3757,16 +3757,16 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -3774,7 +3774,7 @@
         <v>10293</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -3807,25 +3807,25 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="T21" s="1">
         <v>7</v>
@@ -3834,7 +3834,7 @@
         <v>8</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="W21" s="1">
         <v>62.5</v>
@@ -3855,16 +3855,16 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -3872,7 +3872,7 @@
         <v>10298</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
@@ -3905,25 +3905,25 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W22" s="1">
         <v>19</v>
@@ -3953,16 +3953,16 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -3970,7 +3970,7 @@
         <v>10298</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
@@ -4003,25 +4003,25 @@
         <v>0.25</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T23" s="1">
         <v>17</v>
@@ -4030,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W23" s="1">
         <v>19</v>
@@ -4051,16 +4051,16 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>10304</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T24" s="1">
         <v>23</v>
@@ -4128,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W24" s="1">
         <v>20</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -4166,7 +4166,7 @@
         <v>10304</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -4199,25 +4199,25 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T25" s="1">
         <v>28</v>
@@ -4226,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W25" s="1">
         <v>55</v>
@@ -4247,16 +4247,16 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -4264,7 +4264,7 @@
         <v>10304</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -4297,25 +4297,25 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T26" s="1">
         <v>15</v>
@@ -4324,7 +4324,7 @@
         <v>4</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W26" s="1">
         <v>21.5</v>
@@ -4345,16 +4345,16 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -4362,7 +4362,7 @@
         <v>10321</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -4395,25 +4395,25 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T27" s="1">
         <v>16</v>
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W27" s="1">
         <v>18</v>
@@ -4443,16 +4443,16 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -4460,7 +4460,7 @@
         <v>10346</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -4493,25 +4493,25 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T28" s="1">
         <v>26</v>
@@ -4520,7 +4520,7 @@
         <v>5</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W28" s="1">
         <v>38</v>
@@ -4541,16 +4541,16 @@
         <v>0</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -4558,7 +4558,7 @@
         <v>10372</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -4591,25 +4591,25 @@
         <v>0.25</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="R29" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T29" s="1">
         <v>8</v>
@@ -4618,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W29" s="1">
         <v>81</v>
@@ -4639,16 +4639,16 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
         <v>10372</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -4689,25 +4689,25 @@
         <v>0.25</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="R30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="T30" s="1">
         <v>18</v>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="W30" s="1">
         <v>263.5</v>
@@ -4737,16 +4737,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>10372</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -4787,25 +4787,25 @@
         <v>0.25</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T31" s="1">
         <v>28</v>
@@ -4814,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="W31" s="1">
         <v>34</v>
@@ -4835,16 +4835,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>10372</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
@@ -4885,25 +4885,25 @@
         <v>0.25</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="R32" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T32" s="1">
         <v>14</v>
@@ -4912,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W32" s="1">
         <v>34.799999999999997</v>
@@ -4933,16 +4933,16 @@
         <v>0</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -4950,7 +4950,7 @@
         <v>10373</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -4983,25 +4983,25 @@
         <v>0.2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T33" s="1">
         <v>27</v>
@@ -5010,7 +5010,7 @@
         <v>8</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W33" s="1">
         <v>13.25</v>
@@ -5031,16 +5031,16 @@
         <v>0</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -5048,7 +5048,7 @@
         <v>10373</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
@@ -5081,25 +5081,25 @@
         <v>0.2</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T34" s="1">
         <v>15</v>
@@ -5108,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W34" s="1">
         <v>21.5</v>
@@ -5129,16 +5129,16 @@
         <v>0</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
         <v>10375</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -5179,25 +5179,25 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T35" s="1">
         <v>6</v>
@@ -5206,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W35" s="1">
         <v>23.25</v>
@@ -5227,16 +5227,16 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -5244,7 +5244,7 @@
         <v>10377</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5277,25 +5277,25 @@
         <v>0.15</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="T36" s="1">
         <v>12</v>
@@ -5304,7 +5304,7 @@
         <v>7</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W36" s="1">
         <v>45.6</v>
@@ -5325,16 +5325,16 @@
         <v>1</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>10377</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -5375,25 +5375,25 @@
         <v>0.15</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T37" s="1">
         <v>18</v>
@@ -5402,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="W37" s="1">
         <v>18</v>
@@ -5423,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -5440,7 +5440,7 @@
         <v>10380</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1">
         <v>8</v>
@@ -5473,25 +5473,25 @@
         <v>0.1</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T38" s="1">
         <v>13</v>
@@ -5500,7 +5500,7 @@
         <v>8</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W38" s="1">
         <v>25.89</v>
@@ -5521,16 +5521,16 @@
         <v>0</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -5538,7 +5538,7 @@
         <v>10380</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1">
         <v>8</v>
@@ -5571,25 +5571,25 @@
         <v>0.1</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T39" s="1">
         <v>24</v>
@@ -5598,7 +5598,7 @@
         <v>6</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W39" s="1">
         <v>32.799999999999997</v>
@@ -5619,16 +5619,16 @@
         <v>1</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -5636,7 +5636,7 @@
         <v>10395</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -5669,25 +5669,25 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T40" s="1">
         <v>15</v>
@@ -5696,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W40" s="1">
         <v>36</v>
@@ -5717,16 +5717,16 @@
         <v>0</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -5734,7 +5734,7 @@
         <v>10400</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -5767,25 +5767,25 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T41" s="1">
         <v>16</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W41" s="1">
         <v>18</v>
@@ -5815,16 +5815,16 @@
         <v>0</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -5832,7 +5832,7 @@
         <v>10401</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -5865,25 +5865,25 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T42" s="1">
         <v>13</v>
@@ -5892,7 +5892,7 @@
         <v>8</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W42" s="1">
         <v>25.89</v>
@@ -5913,16 +5913,16 @@
         <v>0</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
         <v>10401</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -5963,25 +5963,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T43" s="1">
         <v>26</v>
@@ -5990,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W43" s="1">
         <v>38</v>
@@ -6011,16 +6011,16 @@
         <v>0</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -6028,7 +6028,7 @@
         <v>10401</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -6061,25 +6061,25 @@
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T44" s="1">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W44" s="1">
         <v>21.05</v>
@@ -6109,16 +6109,16 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -6126,7 +6126,7 @@
         <v>10401</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -6159,25 +6159,25 @@
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T45" s="1">
         <v>15</v>
@@ -6186,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W45" s="1">
         <v>21.5</v>
@@ -6207,16 +6207,16 @@
         <v>0</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
         <v>10406</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C46" s="1">
         <v>7</v>
@@ -6257,25 +6257,25 @@
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T46" s="1">
         <v>1</v>
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="W46" s="1">
         <v>18</v>
@@ -6305,16 +6305,16 @@
         <v>0</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -6322,7 +6322,7 @@
         <v>10406</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C47" s="1">
         <v>7</v>
@@ -6355,25 +6355,25 @@
         <v>0.1</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="T47" s="1">
         <v>8</v>
@@ -6382,7 +6382,7 @@
         <v>3</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W47" s="1">
         <v>10</v>
@@ -6403,16 +6403,16 @@
         <v>0</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -6420,7 +6420,7 @@
         <v>10406</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
@@ -6453,25 +6453,25 @@
         <v>0.1</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="T48" s="1">
         <v>12</v>
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W48" s="1">
         <v>45.6</v>
@@ -6501,16 +6501,16 @@
         <v>1</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -6518,7 +6518,7 @@
         <v>10406</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -6551,25 +6551,25 @@
         <v>0.1</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T49" s="1">
         <v>17</v>
@@ -6578,7 +6578,7 @@
         <v>8</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W49" s="1">
         <v>19</v>
@@ -6599,16 +6599,16 @@
         <v>0</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>10406</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C50" s="1">
         <v>7</v>
@@ -6649,25 +6649,25 @@
         <v>0.1</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T50" s="1">
         <v>19</v>
@@ -6676,7 +6676,7 @@
         <v>8</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W50" s="1">
         <v>18.399999999999999</v>
@@ -6697,16 +6697,16 @@
         <v>0</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
@@ -6714,7 +6714,7 @@
         <v>10410</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
@@ -6747,25 +6747,25 @@
         <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="T51" s="1">
         <v>15</v>
@@ -6774,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W51" s="1">
         <v>2.5</v>
@@ -6795,16 +6795,16 @@
         <v>0</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
@@ -6812,7 +6812,7 @@
         <v>10411</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C52" s="1">
         <v>9</v>
@@ -6845,25 +6845,25 @@
         <v>0.2</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="T52" s="1">
         <v>20</v>
@@ -6872,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="W52" s="1">
         <v>19.45</v>
@@ -6893,16 +6893,16 @@
         <v>0</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
@@ -6910,7 +6910,7 @@
         <v>10411</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C53" s="1">
         <v>9</v>
@@ -6943,25 +6943,25 @@
         <v>0.2</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T53" s="1">
         <v>28</v>
@@ -6970,7 +6970,7 @@
         <v>4</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W53" s="1">
         <v>55</v>
@@ -6991,16 +6991,16 @@
         <v>0</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
         <v>10435</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
@@ -7041,25 +7041,25 @@
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T54" s="1">
         <v>1</v>
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W54" s="1">
         <v>19</v>
@@ -7089,16 +7089,16 @@
         <v>0</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AF54" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -7106,7 +7106,7 @@
         <v>10435</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C55" s="1">
         <v>8</v>
@@ -7139,25 +7139,25 @@
         <v>0</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T55" s="1">
         <v>14</v>
@@ -7166,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W55" s="1">
         <v>34.799999999999997</v>
@@ -7187,16 +7187,16 @@
         <v>0</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF55" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
@@ -7204,7 +7204,7 @@
         <v>10438</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -7237,25 +7237,25 @@
         <v>0.2</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T56" s="1">
         <v>8</v>
@@ -7264,7 +7264,7 @@
         <v>3</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="W56" s="1">
         <v>9.1999999999999993</v>
@@ -7285,16 +7285,16 @@
         <v>0</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -7302,7 +7302,7 @@
         <v>10438</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
@@ -7335,25 +7335,25 @@
         <v>0.2</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T57" s="1">
         <v>16</v>
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W57" s="1">
         <v>14</v>
@@ -7383,16 +7383,16 @@
         <v>0</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
@@ -7400,7 +7400,7 @@
         <v>10438</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
@@ -7433,25 +7433,25 @@
         <v>0.2</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="T58" s="1">
         <v>26</v>
@@ -7460,7 +7460,7 @@
         <v>5</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W58" s="1">
         <v>19.5</v>
@@ -7481,16 +7481,16 @@
         <v>0</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
@@ -7498,7 +7498,7 @@
         <v>10441</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
@@ -7531,25 +7531,25 @@
         <v>0</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T59" s="1">
         <v>11</v>
@@ -7558,7 +7558,7 @@
         <v>3</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="W59" s="1">
         <v>43.9</v>
@@ -7579,16 +7579,16 @@
         <v>0</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
@@ -7596,7 +7596,7 @@
         <v>10471</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -7629,25 +7629,25 @@
         <v>0</v>
       </c>
       <c r="M60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R60" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="S60" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="T60" s="1">
         <v>3</v>
@@ -7656,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="W60" s="1">
         <v>30</v>
@@ -7677,16 +7677,16 @@
         <v>0</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
@@ -7694,7 +7694,7 @@
         <v>10471</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
@@ -7727,25 +7727,25 @@
         <v>0</v>
       </c>
       <c r="M61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R61" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="S61" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T61" s="1">
         <v>26</v>
@@ -7754,7 +7754,7 @@
         <v>5</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W61" s="1">
         <v>38</v>
@@ -7775,16 +7775,16 @@
         <v>0</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>10472</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -7825,25 +7825,25 @@
         <v>0.05</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="T62" s="1">
         <v>10</v>
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="W62" s="1">
         <v>4.5</v>
@@ -7873,16 +7873,16 @@
         <v>1</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>10472</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1">
         <v>8</v>
@@ -7923,25 +7923,25 @@
         <v>0</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T63" s="1">
         <v>24</v>
@@ -7950,7 +7950,7 @@
         <v>7</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W63" s="1">
         <v>53</v>
@@ -7971,16 +7971,16 @@
         <v>0</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
@@ -7988,7 +7988,7 @@
         <v>10495</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -8021,25 +8021,25 @@
         <v>0</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T64" s="1">
         <v>9</v>
@@ -8048,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="W64" s="1">
         <v>9</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF64" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>10495</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
@@ -8119,25 +8119,25 @@
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T65" s="1">
         <v>19</v>
@@ -8146,7 +8146,7 @@
         <v>8</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W65" s="1">
         <v>9.65</v>
@@ -8167,16 +8167,16 @@
         <v>0</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF65" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
@@ -8184,7 +8184,7 @@
         <v>10495</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
@@ -8217,25 +8217,25 @@
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="T66" s="1">
         <v>12</v>
@@ -8244,7 +8244,7 @@
         <v>2</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="W66" s="1">
         <v>13</v>
@@ -8265,16 +8265,16 @@
         <v>0</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>10497</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C67" s="1">
         <v>7</v>
@@ -8315,25 +8315,25 @@
         <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T67" s="1">
         <v>26</v>
@@ -8342,7 +8342,7 @@
         <v>5</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W67" s="1">
         <v>38</v>
@@ -8363,16 +8363,16 @@
         <v>0</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF67" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>10497</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -8413,25 +8413,25 @@
         <v>0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T68" s="1">
         <v>14</v>
@@ -8440,7 +8440,7 @@
         <v>4</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W68" s="1">
         <v>34.799999999999997</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
@@ -8478,7 +8478,7 @@
         <v>10497</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C69" s="1">
         <v>7</v>
@@ -8511,25 +8511,25 @@
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="T69" s="1">
         <v>12</v>
@@ -8538,7 +8538,7 @@
         <v>2</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="W69" s="1">
         <v>13</v>
@@ -8559,16 +8559,16 @@
         <v>0</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
@@ -8576,7 +8576,7 @@
         <v>10498</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C70" s="1">
         <v>8</v>
@@ -8609,25 +8609,25 @@
         <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="T70" s="1">
         <v>10</v>
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="W70" s="1">
         <v>4.5</v>
@@ -8657,16 +8657,16 @@
         <v>1</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
@@ -8674,7 +8674,7 @@
         <v>10498</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C71" s="1">
         <v>8</v>
@@ -8707,25 +8707,25 @@
         <v>0</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T71" s="1">
         <v>19</v>
@@ -8734,7 +8734,7 @@
         <v>8</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W71" s="1">
         <v>18.399999999999999</v>
@@ -8755,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
         <v>10503</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
@@ -8805,25 +8805,25 @@
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T72" s="1">
         <v>6</v>
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W72" s="1">
         <v>23.25</v>
@@ -8853,16 +8853,16 @@
         <v>0</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -8870,7 +8870,7 @@
         <v>10503</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C73" s="1">
         <v>6</v>
@@ -8903,25 +8903,25 @@
         <v>0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T73" s="1">
         <v>2</v>
@@ -8930,7 +8930,7 @@
         <v>2</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W73" s="1">
         <v>21.05</v>
@@ -8951,16 +8951,16 @@
         <v>0</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AF73" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
         <v>10523</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C74" s="1">
         <v>7</v>
@@ -9001,25 +9001,25 @@
         <v>0.1</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T74" s="1">
         <v>7</v>
@@ -9028,7 +9028,7 @@
         <v>6</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="W74" s="1">
         <v>39</v>
@@ -9049,16 +9049,16 @@
         <v>1</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF74" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -9066,7 +9066,7 @@
         <v>10529</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
@@ -9099,25 +9099,25 @@
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="T75" s="1">
         <v>25</v>
@@ -9126,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="W75" s="1">
         <v>24</v>
@@ -9147,16 +9147,16 @@
         <v>0</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF75" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
@@ -9164,7 +9164,7 @@
         <v>10529</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C76" s="1">
         <v>5</v>
@@ -9197,25 +9197,25 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="T76" s="1">
         <v>8</v>
@@ -9224,7 +9224,7 @@
         <v>3</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W76" s="1">
         <v>12.5</v>
@@ -9245,16 +9245,16 @@
         <v>0</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
@@ -9262,7 +9262,7 @@
         <v>10529</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
@@ -9295,25 +9295,25 @@
         <v>0</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T77" s="1">
         <v>15</v>
@@ -9322,7 +9322,7 @@
         <v>4</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W77" s="1">
         <v>36</v>
@@ -9343,16 +9343,16 @@
         <v>0</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -9360,7 +9360,7 @@
         <v>10532</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C78" s="1">
         <v>7</v>
@@ -9393,25 +9393,25 @@
         <v>0</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="P78" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="R78" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T78" s="1">
         <v>13</v>
@@ -9420,7 +9420,7 @@
         <v>8</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W78" s="1">
         <v>25.89</v>
@@ -9441,16 +9441,16 @@
         <v>0</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
@@ -9458,7 +9458,7 @@
         <v>10532</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C79" s="1">
         <v>7</v>
@@ -9491,25 +9491,25 @@
         <v>0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P79" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="Q79" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="P79" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="R79" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T79" s="1">
         <v>2</v>
@@ -9518,7 +9518,7 @@
         <v>2</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W79" s="1">
         <v>17</v>
@@ -9539,16 +9539,16 @@
         <v>0</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -9556,7 +9556,7 @@
         <v>10534</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C80" s="1">
         <v>8</v>
@@ -9589,25 +9589,25 @@
         <v>0</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T80" s="1">
         <v>13</v>
@@ -9616,7 +9616,7 @@
         <v>8</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W80" s="1">
         <v>25.89</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
@@ -9654,7 +9654,7 @@
         <v>10534</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C81" s="1">
         <v>8</v>
@@ -9687,25 +9687,25 @@
         <v>0.2</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T81" s="1">
         <v>19</v>
@@ -9714,7 +9714,7 @@
         <v>8</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W81" s="1">
         <v>18.399999999999999</v>
@@ -9735,16 +9735,16 @@
         <v>0</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
@@ -9752,7 +9752,7 @@
         <v>10534</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C82" s="1">
         <v>8</v>
@@ -9785,25 +9785,25 @@
         <v>0.2</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T82" s="1">
         <v>25</v>
@@ -9812,7 +9812,7 @@
         <v>6</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="W82" s="1">
         <v>7.45</v>
@@ -9833,16 +9833,16 @@
         <v>0</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -9850,7 +9850,7 @@
         <v>10558</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -9883,25 +9883,25 @@
         <v>0</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="T83" s="1">
         <v>22</v>
@@ -9910,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="W83" s="1">
         <v>9.5</v>
@@ -9931,16 +9931,16 @@
         <v>0</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -9948,7 +9948,7 @@
         <v>10558</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -9981,25 +9981,25 @@
         <v>0</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T84" s="1">
         <v>24</v>
@@ -10008,7 +10008,7 @@
         <v>7</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W84" s="1">
         <v>53</v>
@@ -10029,16 +10029,16 @@
         <v>0</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
@@ -10046,7 +10046,7 @@
         <v>10558</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -10079,25 +10079,25 @@
         <v>0</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="T85" s="1">
         <v>24</v>
@@ -10106,7 +10106,7 @@
         <v>5</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="W85" s="1">
         <v>7</v>
@@ -10127,16 +10127,16 @@
         <v>0</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
         <v>10558</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -10177,25 +10177,25 @@
         <v>0</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T86" s="1">
         <v>24</v>
@@ -10204,7 +10204,7 @@
         <v>6</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W86" s="1">
         <v>32.799999999999997</v>
@@ -10225,16 +10225,16 @@
         <v>1</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
@@ -10242,7 +10242,7 @@
         <v>10558</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -10275,25 +10275,25 @@
         <v>0</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="T87" s="1">
         <v>17</v>
@@ -10302,7 +10302,7 @@
         <v>8</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="W87" s="1">
         <v>15</v>
@@ -10323,16 +10323,16 @@
         <v>0</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD87" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
@@ -10340,7 +10340,7 @@
         <v>10620</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
@@ -10373,25 +10373,25 @@
         <v>0</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S88" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="T88" s="1">
         <v>10</v>
@@ -10400,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="W88" s="1">
         <v>4.5</v>
@@ -10421,16 +10421,16 @@
         <v>1</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
@@ -10438,7 +10438,7 @@
         <v>10620</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -10471,25 +10471,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="T89" s="1">
         <v>24</v>
@@ -10498,7 +10498,7 @@
         <v>5</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="W89" s="1">
         <v>7</v>
@@ -10519,16 +10519,16 @@
         <v>0</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>10621</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C90" s="1">
         <v>4</v>
@@ -10569,25 +10569,25 @@
         <v>0</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T90" s="1">
         <v>8</v>
@@ -10596,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="W90" s="1">
         <v>9.1999999999999993</v>
@@ -10617,16 +10617,16 @@
         <v>0</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
@@ -10634,7 +10634,7 @@
         <v>10624</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C91" s="1">
         <v>4</v>
@@ -10667,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="T91" s="1">
         <v>12</v>
@@ -10694,7 +10694,7 @@
         <v>7</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W91" s="1">
         <v>45.6</v>
@@ -10715,16 +10715,16 @@
         <v>1</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
@@ -10732,7 +10732,7 @@
         <v>10624</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C92" s="1">
         <v>4</v>
@@ -10765,25 +10765,25 @@
         <v>0</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="T92" s="1">
         <v>12</v>
@@ -10792,7 +10792,7 @@
         <v>6</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="W92" s="1">
         <v>123.79</v>
@@ -10813,16 +10813,16 @@
         <v>1</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
         <v>10624</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C93" s="1">
         <v>4</v>
@@ -10863,25 +10863,25 @@
         <v>0</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="T93" s="1">
         <v>20</v>
@@ -10890,7 +10890,7 @@
         <v>2</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="W93" s="1">
         <v>19.45</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
         <v>10625</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C94" s="1">
         <v>3</v>
@@ -10961,25 +10961,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T94" s="1">
         <v>6</v>
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W94" s="1">
         <v>23.25</v>
@@ -11009,16 +11009,16 @@
         <v>0</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
@@ -11026,7 +11026,7 @@
         <v>10625</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C95" s="1">
         <v>3</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="T95" s="1">
         <v>20</v>
@@ -11086,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="W95" s="1">
         <v>14</v>
@@ -11107,16 +11107,16 @@
         <v>1</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
@@ -11124,7 +11124,7 @@
         <v>10625</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C96" s="1">
         <v>3</v>
@@ -11157,25 +11157,25 @@
         <v>0</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T96" s="1">
         <v>28</v>
@@ -11184,7 +11184,7 @@
         <v>4</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="W96" s="1">
         <v>34</v>
@@ -11205,16 +11205,16 @@
         <v>0</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Pakaasa.xlsx
+++ b/Pakaasa.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\paakasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11FDF208-DABE-4020-B55B-31025B691083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99094B-841A-4DE9-97A5-ADAD01575245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pakaasa" sheetId="1" r:id="rId1"/>
@@ -70,15 +70,6 @@
     <t>contactTitle</t>
   </si>
   <si>
-    <t>employees.lastName</t>
-  </si>
-  <si>
-    <t>employees.firstName</t>
-  </si>
-  <si>
-    <t>employees.title</t>
-  </si>
-  <si>
     <t>productName</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>quantityPerUnit</t>
   </si>
   <si>
-    <t>unitPrice.1</t>
-  </si>
-  <si>
     <t>unitsInStock</t>
   </si>
   <si>
@@ -955,21 +943,33 @@
     <t>Specialty Biscuits Ltd</t>
   </si>
   <si>
-    <t>supplier.companyName</t>
-  </si>
-  <si>
-    <t>supplier.contactName</t>
-  </si>
-  <si>
-    <t>supplier.contactTitle</t>
+    <t>supplierCompanyName</t>
+  </si>
+  <si>
+    <t>supplierContactName</t>
+  </si>
+  <si>
+    <t>supplierContactTitle</t>
+  </si>
+  <si>
+    <t>unitPriceOne</t>
+  </si>
+  <si>
+    <t>employeesTitle</t>
+  </si>
+  <si>
+    <t>employeesFirstName</t>
+  </si>
+  <si>
+    <t>employeesLastName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1453,7 +1453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1810,12 +1810,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1901,52 +1899,52 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -1954,7 +1952,7 @@
         <v>10272</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
@@ -1987,25 +1985,25 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="T2" s="1">
         <v>14</v>
@@ -2014,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W2" s="1">
         <v>34.799999999999997</v>
@@ -2032,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -2049,7 +2047,7 @@
         <v>10249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -2082,25 +2080,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T3" s="1">
         <v>6</v>
@@ -2109,7 +2107,7 @@
         <v>7</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W3" s="1">
         <v>23.25</v>
@@ -2127,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -2144,7 +2142,7 @@
         <v>10249</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -2177,25 +2175,25 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T4" s="1">
         <v>24</v>
@@ -2204,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W4" s="1">
         <v>53</v>
@@ -2222,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -2239,7 +2237,7 @@
         <v>10250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2272,25 +2270,25 @@
         <v>0.15</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T5" s="1">
         <v>24</v>
@@ -2299,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W5" s="1">
         <v>53</v>
@@ -2317,16 +2315,16 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -2334,7 +2332,7 @@
         <v>10255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
@@ -2367,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="T6" s="1">
         <v>28</v>
@@ -2394,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W6" s="1">
         <v>55</v>
@@ -2412,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -2429,7 +2427,7 @@
         <v>10250</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -2462,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T7" s="1">
         <v>19</v>
@@ -2489,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W7" s="1">
         <v>9.65</v>
@@ -2507,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -2524,7 +2522,7 @@
         <v>10255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -2557,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T8" s="1">
         <v>7</v>
@@ -2584,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W8" s="1">
         <v>17.45</v>
@@ -2602,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -2619,7 +2617,7 @@
         <v>10253</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2652,25 +2650,25 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T9" s="1">
         <v>14</v>
@@ -2679,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W9" s="1">
         <v>12.5</v>
@@ -2697,16 +2695,16 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -2714,7 +2712,7 @@
         <v>10272</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
@@ -2747,25 +2745,25 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T10" s="1">
         <v>14</v>
@@ -2774,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W10" s="1">
         <v>12.5</v>
@@ -2792,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2809,7 +2807,7 @@
         <v>10253</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -2842,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="T11" s="1">
         <v>23</v>
@@ -2869,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W11" s="1">
         <v>20</v>
@@ -2887,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -2904,7 +2902,7 @@
         <v>10272</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
@@ -2937,25 +2935,25 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T12" s="1">
         <v>8</v>
@@ -2964,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W12" s="1">
         <v>81</v>
@@ -2982,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2999,7 +2997,7 @@
         <v>10255</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1">
         <v>9</v>
@@ -3032,25 +3030,25 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T13" s="1">
         <v>17</v>
@@ -3059,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W13" s="1">
         <v>19</v>
@@ -3077,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -3094,7 +3092,7 @@
         <v>10273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -3127,25 +3125,25 @@
         <v>0.05</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T14" s="1">
         <v>4</v>
@@ -3154,7 +3152,7 @@
         <v>8</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W14" s="1">
         <v>31</v>
@@ -3172,16 +3170,16 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -3189,7 +3187,7 @@
         <v>10273</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -3222,25 +3220,25 @@
         <v>0.05</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T15" s="1">
         <v>14</v>
@@ -3249,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W15" s="1">
         <v>12.5</v>
@@ -3267,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -3284,7 +3282,7 @@
         <v>10273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -3317,25 +3315,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="T16" s="1">
         <v>15</v>
@@ -3344,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W16" s="1">
         <v>2.5</v>
@@ -3362,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -3379,7 +3377,7 @@
         <v>10273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -3412,25 +3410,25 @@
         <v>0.05</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T17" s="1">
         <v>19</v>
@@ -3439,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W17" s="1">
         <v>18.399999999999999</v>
@@ -3457,16 +3455,16 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -3474,7 +3472,7 @@
         <v>10273</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -3507,25 +3505,25 @@
         <v>0.05</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T18" s="1">
         <v>23</v>
@@ -3534,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="W18" s="1">
         <v>18</v>
@@ -3552,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -3569,7 +3567,7 @@
         <v>10276</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
@@ -3602,25 +3600,25 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T19" s="1">
         <v>4</v>
@@ -3629,7 +3627,7 @@
         <v>8</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W19" s="1">
         <v>31</v>
@@ -3647,16 +3645,16 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -3664,7 +3662,7 @@
         <v>10276</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
@@ -3697,25 +3695,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="T20" s="1">
         <v>6</v>
@@ -3724,7 +3722,7 @@
         <v>8</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W20" s="1">
         <v>6</v>
@@ -3742,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -3759,7 +3757,7 @@
         <v>10293</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -3792,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="T21" s="1">
         <v>7</v>
@@ -3819,7 +3817,7 @@
         <v>8</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="W21" s="1">
         <v>62.5</v>
@@ -3837,16 +3835,16 @@
         <v>0</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -3854,7 +3852,7 @@
         <v>10298</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
@@ -3887,25 +3885,25 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
@@ -3914,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W22" s="1">
         <v>19</v>
@@ -3932,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3949,7 +3947,7 @@
         <v>10298</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
@@ -3982,25 +3980,25 @@
         <v>0.25</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T23" s="1">
         <v>17</v>
@@ -4009,7 +4007,7 @@
         <v>8</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W23" s="1">
         <v>19</v>
@@ -4027,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4044,7 +4042,7 @@
         <v>10304</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4077,25 +4075,25 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T24" s="1">
         <v>23</v>
@@ -4104,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W24" s="1">
         <v>20</v>
@@ -4122,16 +4120,16 @@
         <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -4139,7 +4137,7 @@
         <v>10304</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -4172,25 +4170,25 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T25" s="1">
         <v>28</v>
@@ -4199,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W25" s="1">
         <v>55</v>
@@ -4217,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -4234,7 +4232,7 @@
         <v>10304</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -4267,25 +4265,25 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T26" s="1">
         <v>15</v>
@@ -4294,7 +4292,7 @@
         <v>4</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W26" s="1">
         <v>21.5</v>
@@ -4312,16 +4310,16 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -4329,7 +4327,7 @@
         <v>10321</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -4362,25 +4360,25 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T27" s="1">
         <v>16</v>
@@ -4389,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W27" s="1">
         <v>18</v>
@@ -4407,16 +4405,16 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -4424,7 +4422,7 @@
         <v>10344</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -4457,25 +4455,25 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="T28" s="1">
         <v>2</v>
@@ -4484,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W28" s="1">
         <v>22</v>
@@ -4502,16 +4500,16 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -4519,7 +4517,7 @@
         <v>10344</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -4552,25 +4550,25 @@
         <v>0.25</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="T29" s="1">
         <v>3</v>
@@ -4579,7 +4577,7 @@
         <v>2</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="W29" s="1">
         <v>40</v>
@@ -4597,16 +4595,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -4614,7 +4612,7 @@
         <v>10346</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -4647,25 +4645,25 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T30" s="1">
         <v>26</v>
@@ -4674,7 +4672,7 @@
         <v>5</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W30" s="1">
         <v>38</v>
@@ -4692,16 +4690,16 @@
         <v>0</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -4709,7 +4707,7 @@
         <v>10372</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -4742,25 +4740,25 @@
         <v>0.25</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T31" s="1">
         <v>8</v>
@@ -4769,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W31" s="1">
         <v>81</v>
@@ -4787,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -4804,7 +4802,7 @@
         <v>10372</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
@@ -4837,25 +4835,25 @@
         <v>0.25</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="R32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T32" s="1">
         <v>18</v>
@@ -4864,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W32" s="1">
         <v>263.5</v>
@@ -4882,16 +4880,16 @@
         <v>0</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -4899,7 +4897,7 @@
         <v>10372</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -4932,25 +4930,25 @@
         <v>0.25</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T33" s="1">
         <v>28</v>
@@ -4959,7 +4957,7 @@
         <v>4</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W33" s="1">
         <v>34</v>
@@ -4977,16 +4975,16 @@
         <v>0</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -4994,7 +4992,7 @@
         <v>10372</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1">
         <v>5</v>
@@ -5027,25 +5025,25 @@
         <v>0.25</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="R34" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T34" s="1">
         <v>14</v>
@@ -5054,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W34" s="1">
         <v>34.799999999999997</v>
@@ -5072,16 +5070,16 @@
         <v>0</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -5089,7 +5087,7 @@
         <v>10373</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -5122,25 +5120,25 @@
         <v>0.2</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T35" s="1">
         <v>27</v>
@@ -5149,7 +5147,7 @@
         <v>8</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="W35" s="1">
         <v>13.25</v>
@@ -5167,16 +5165,16 @@
         <v>0</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -5184,7 +5182,7 @@
         <v>10373</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -5217,25 +5215,25 @@
         <v>0.2</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T36" s="1">
         <v>15</v>
@@ -5244,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W36" s="1">
         <v>21.5</v>
@@ -5262,16 +5260,16 @@
         <v>0</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -5279,7 +5277,7 @@
         <v>10375</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
@@ -5312,25 +5310,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T37" s="1">
         <v>6</v>
@@ -5339,7 +5337,7 @@
         <v>7</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W37" s="1">
         <v>23.25</v>
@@ -5357,16 +5355,16 @@
         <v>0</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -5374,7 +5372,7 @@
         <v>10377</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -5407,25 +5405,25 @@
         <v>0.15</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T38" s="1">
         <v>12</v>
@@ -5434,7 +5432,7 @@
         <v>7</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W38" s="1">
         <v>45.6</v>
@@ -5452,16 +5450,16 @@
         <v>1</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -5469,7 +5467,7 @@
         <v>10377</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -5502,25 +5500,25 @@
         <v>0.15</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T39" s="1">
         <v>18</v>
@@ -5529,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="W39" s="1">
         <v>18</v>
@@ -5547,16 +5545,16 @@
         <v>0</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -5564,7 +5562,7 @@
         <v>10380</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
@@ -5597,25 +5595,25 @@
         <v>0.1</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T40" s="1">
         <v>13</v>
@@ -5624,7 +5622,7 @@
         <v>8</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W40" s="1">
         <v>25.89</v>
@@ -5642,16 +5640,16 @@
         <v>0</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
@@ -5659,7 +5657,7 @@
         <v>10380</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -5692,25 +5690,25 @@
         <v>0.1</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T41" s="1">
         <v>24</v>
@@ -5719,7 +5717,7 @@
         <v>6</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W41" s="1">
         <v>32.799999999999997</v>
@@ -5737,16 +5735,16 @@
         <v>1</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -5754,7 +5752,7 @@
         <v>10395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C42" s="1">
         <v>6</v>
@@ -5787,25 +5785,25 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T42" s="1">
         <v>15</v>
@@ -5814,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W42" s="1">
         <v>36</v>
@@ -5832,16 +5830,16 @@
         <v>0</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -5849,7 +5847,7 @@
         <v>10400</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -5882,25 +5880,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T43" s="1">
         <v>16</v>
@@ -5909,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W43" s="1">
         <v>18</v>
@@ -5927,16 +5925,16 @@
         <v>0</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -5944,7 +5942,7 @@
         <v>10401</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -5977,25 +5975,25 @@
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T44" s="1">
         <v>13</v>
@@ -6004,7 +6002,7 @@
         <v>8</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W44" s="1">
         <v>25.89</v>
@@ -6022,16 +6020,16 @@
         <v>0</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -6039,7 +6037,7 @@
         <v>10401</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -6072,25 +6070,25 @@
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T45" s="1">
         <v>26</v>
@@ -6099,7 +6097,7 @@
         <v>5</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W45" s="1">
         <v>38</v>
@@ -6117,16 +6115,16 @@
         <v>0</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -6134,7 +6132,7 @@
         <v>10401</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -6167,25 +6165,25 @@
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="T46" s="1">
         <v>2</v>
@@ -6194,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W46" s="1">
         <v>21.05</v>
@@ -6212,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -6229,7 +6227,7 @@
         <v>10401</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -6262,25 +6260,25 @@
         <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T47" s="1">
         <v>15</v>
@@ -6289,7 +6287,7 @@
         <v>4</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W47" s="1">
         <v>21.5</v>
@@ -6307,16 +6305,16 @@
         <v>0</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -6324,7 +6322,7 @@
         <v>10406</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
@@ -6357,25 +6355,25 @@
         <v>0</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T48" s="1">
         <v>1</v>
@@ -6384,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="W48" s="1">
         <v>18</v>
@@ -6402,16 +6400,16 @@
         <v>0</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
@@ -6419,7 +6417,7 @@
         <v>10406</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -6452,25 +6450,25 @@
         <v>0.1</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="T49" s="1">
         <v>8</v>
@@ -6479,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="W49" s="1">
         <v>10</v>
@@ -6497,16 +6495,16 @@
         <v>0</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
@@ -6514,7 +6512,7 @@
         <v>10406</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C50" s="1">
         <v>7</v>
@@ -6547,25 +6545,25 @@
         <v>0.1</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T50" s="1">
         <v>12</v>
@@ -6574,7 +6572,7 @@
         <v>7</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W50" s="1">
         <v>45.6</v>
@@ -6592,16 +6590,16 @@
         <v>1</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
@@ -6609,7 +6607,7 @@
         <v>10406</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1">
         <v>7</v>
@@ -6642,25 +6640,25 @@
         <v>0.1</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T51" s="1">
         <v>17</v>
@@ -6669,7 +6667,7 @@
         <v>8</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W51" s="1">
         <v>19</v>
@@ -6687,16 +6685,16 @@
         <v>0</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -6704,7 +6702,7 @@
         <v>10406</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C52" s="1">
         <v>7</v>
@@ -6737,25 +6735,25 @@
         <v>0.1</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T52" s="1">
         <v>19</v>
@@ -6764,7 +6762,7 @@
         <v>8</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W52" s="1">
         <v>18.399999999999999</v>
@@ -6782,16 +6780,16 @@
         <v>0</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
@@ -6799,7 +6797,7 @@
         <v>10410</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
@@ -6832,25 +6830,25 @@
         <v>0</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="T53" s="1">
         <v>15</v>
@@ -6859,7 +6857,7 @@
         <v>4</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W53" s="1">
         <v>2.5</v>
@@ -6877,16 +6875,16 @@
         <v>0</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
@@ -6894,7 +6892,7 @@
         <v>10411</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
@@ -6927,25 +6925,25 @@
         <v>0.2</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T54" s="1">
         <v>20</v>
@@ -6954,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="W54" s="1">
         <v>19.45</v>
@@ -6972,16 +6970,16 @@
         <v>0</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
@@ -6989,7 +6987,7 @@
         <v>10411</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C55" s="1">
         <v>9</v>
@@ -7022,25 +7020,25 @@
         <v>0.2</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T55" s="1">
         <v>28</v>
@@ -7049,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W55" s="1">
         <v>55</v>
@@ -7067,16 +7065,16 @@
         <v>0</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
@@ -7084,7 +7082,7 @@
         <v>10435</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -7117,25 +7115,25 @@
         <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T56" s="1">
         <v>1</v>
@@ -7144,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W56" s="1">
         <v>19</v>
@@ -7162,16 +7160,16 @@
         <v>0</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -7179,7 +7177,7 @@
         <v>10435</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C57" s="1">
         <v>8</v>
@@ -7212,25 +7210,25 @@
         <v>0</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T57" s="1">
         <v>14</v>
@@ -7239,7 +7237,7 @@
         <v>4</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W57" s="1">
         <v>34.799999999999997</v>
@@ -7257,16 +7255,16 @@
         <v>0</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
@@ -7274,7 +7272,7 @@
         <v>10438</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
@@ -7307,25 +7305,25 @@
         <v>0.2</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T58" s="1">
         <v>8</v>
@@ -7334,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="W58" s="1">
         <v>9.1999999999999993</v>
@@ -7352,16 +7350,16 @@
         <v>0</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -7369,7 +7367,7 @@
         <v>10438</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
@@ -7402,25 +7400,25 @@
         <v>0.2</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T59" s="1">
         <v>16</v>
@@ -7429,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W59" s="1">
         <v>14</v>
@@ -7447,16 +7445,16 @@
         <v>0</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -7464,7 +7462,7 @@
         <v>10438</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -7497,25 +7495,25 @@
         <v>0.2</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T60" s="1">
         <v>26</v>
@@ -7524,7 +7522,7 @@
         <v>5</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W60" s="1">
         <v>19.5</v>
@@ -7542,16 +7540,16 @@
         <v>0</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -7559,7 +7557,7 @@
         <v>10441</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
@@ -7592,25 +7590,25 @@
         <v>0</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T61" s="1">
         <v>11</v>
@@ -7619,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="W61" s="1">
         <v>43.9</v>
@@ -7637,16 +7635,16 @@
         <v>0</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
@@ -7654,7 +7652,7 @@
         <v>10469</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -7687,25 +7685,25 @@
         <v>0.15</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T62" s="1">
         <v>1</v>
@@ -7714,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W62" s="1">
         <v>19</v>
@@ -7732,16 +7730,16 @@
         <v>0</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -7749,7 +7747,7 @@
         <v>10469</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -7782,25 +7780,25 @@
         <v>0.15</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T63" s="1">
         <v>7</v>
@@ -7809,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W63" s="1">
         <v>17.45</v>
@@ -7827,16 +7825,16 @@
         <v>0</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -7844,7 +7842,7 @@
         <v>10469</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -7877,25 +7875,25 @@
         <v>0.15</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T64" s="1">
         <v>20</v>
@@ -7904,7 +7902,7 @@
         <v>2</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="W64" s="1">
         <v>19.45</v>
@@ -7922,16 +7920,16 @@
         <v>0</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -7939,7 +7937,7 @@
         <v>10471</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -7972,25 +7970,25 @@
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R65" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="S65" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="T65" s="1">
         <v>3</v>
@@ -7999,7 +7997,7 @@
         <v>7</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="W65" s="1">
         <v>30</v>
@@ -8017,16 +8015,16 @@
         <v>0</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
@@ -8034,7 +8032,7 @@
         <v>10471</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
@@ -8067,25 +8065,25 @@
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R66" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="S66" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T66" s="1">
         <v>26</v>
@@ -8094,7 +8092,7 @@
         <v>5</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W66" s="1">
         <v>38</v>
@@ -8112,16 +8110,16 @@
         <v>0</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -8129,7 +8127,7 @@
         <v>10472</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C67" s="1">
         <v>8</v>
@@ -8162,25 +8160,25 @@
         <v>0.05</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T67" s="1">
         <v>10</v>
@@ -8189,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="W67" s="1">
         <v>4.5</v>
@@ -8207,16 +8205,16 @@
         <v>1</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -8224,7 +8222,7 @@
         <v>10472</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C68" s="1">
         <v>8</v>
@@ -8257,25 +8255,25 @@
         <v>0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T68" s="1">
         <v>24</v>
@@ -8284,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W68" s="1">
         <v>53</v>
@@ -8302,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
@@ -8319,7 +8317,7 @@
         <v>10495</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
@@ -8352,25 +8350,25 @@
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="T69" s="1">
         <v>9</v>
@@ -8379,7 +8377,7 @@
         <v>5</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="W69" s="1">
         <v>9</v>
@@ -8397,16 +8395,16 @@
         <v>0</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -8414,7 +8412,7 @@
         <v>10495</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
@@ -8447,25 +8445,25 @@
         <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T70" s="1">
         <v>19</v>
@@ -8474,7 +8472,7 @@
         <v>8</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W70" s="1">
         <v>9.65</v>
@@ -8492,16 +8490,16 @@
         <v>0</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
@@ -8509,7 +8507,7 @@
         <v>10495</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
@@ -8542,25 +8540,25 @@
         <v>0</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T71" s="1">
         <v>12</v>
@@ -8569,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="W71" s="1">
         <v>13</v>
@@ -8587,16 +8585,16 @@
         <v>0</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
@@ -8604,7 +8602,7 @@
         <v>10497</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C72" s="1">
         <v>7</v>
@@ -8637,25 +8635,25 @@
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T72" s="1">
         <v>26</v>
@@ -8664,7 +8662,7 @@
         <v>5</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W72" s="1">
         <v>38</v>
@@ -8682,16 +8680,16 @@
         <v>0</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
@@ -8699,7 +8697,7 @@
         <v>10497</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C73" s="1">
         <v>7</v>
@@ -8732,25 +8730,25 @@
         <v>0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T73" s="1">
         <v>14</v>
@@ -8759,7 +8757,7 @@
         <v>4</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W73" s="1">
         <v>34.799999999999997</v>
@@ -8777,16 +8775,16 @@
         <v>0</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
@@ -8794,7 +8792,7 @@
         <v>10497</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C74" s="1">
         <v>7</v>
@@ -8827,25 +8825,25 @@
         <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T74" s="1">
         <v>12</v>
@@ -8854,7 +8852,7 @@
         <v>2</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="W74" s="1">
         <v>13</v>
@@ -8872,16 +8870,16 @@
         <v>0</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
@@ -8889,7 +8887,7 @@
         <v>10498</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C75" s="1">
         <v>8</v>
@@ -8922,25 +8920,25 @@
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T75" s="1">
         <v>10</v>
@@ -8949,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="W75" s="1">
         <v>4.5</v>
@@ -8967,16 +8965,16 @@
         <v>1</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
@@ -8984,7 +8982,7 @@
         <v>10498</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C76" s="1">
         <v>8</v>
@@ -9017,25 +9015,25 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T76" s="1">
         <v>19</v>
@@ -9044,7 +9042,7 @@
         <v>8</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W76" s="1">
         <v>18.399999999999999</v>
@@ -9062,16 +9060,16 @@
         <v>0</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
@@ -9079,7 +9077,7 @@
         <v>10503</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C77" s="1">
         <v>6</v>
@@ -9112,25 +9110,25 @@
         <v>0</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T77" s="1">
         <v>6</v>
@@ -9139,7 +9137,7 @@
         <v>7</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W77" s="1">
         <v>23.25</v>
@@ -9157,16 +9155,16 @@
         <v>0</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
@@ -9174,7 +9172,7 @@
         <v>10503</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1">
         <v>6</v>
@@ -9207,25 +9205,25 @@
         <v>0</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="T78" s="1">
         <v>2</v>
@@ -9234,7 +9232,7 @@
         <v>2</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W78" s="1">
         <v>21.05</v>
@@ -9252,16 +9250,16 @@
         <v>0</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
@@ -9269,7 +9267,7 @@
         <v>10504</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1">
         <v>4</v>
@@ -9302,25 +9300,25 @@
         <v>0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T79" s="1">
         <v>1</v>
@@ -9329,7 +9327,7 @@
         <v>1</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W79" s="1">
         <v>19</v>
@@ -9347,16 +9345,16 @@
         <v>0</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
@@ -9364,7 +9362,7 @@
         <v>10504</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
@@ -9397,25 +9395,25 @@
         <v>0</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="T80" s="1">
         <v>8</v>
@@ -9424,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="W80" s="1">
         <v>10</v>
@@ -9442,16 +9440,16 @@
         <v>0</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -9459,7 +9457,7 @@
         <v>10504</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
@@ -9492,25 +9490,25 @@
         <v>0</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T81" s="1">
         <v>24</v>
@@ -9519,7 +9517,7 @@
         <v>6</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W81" s="1">
         <v>32.799999999999997</v>
@@ -9537,16 +9535,16 @@
         <v>1</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -9554,7 +9552,7 @@
         <v>10504</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1">
         <v>4</v>
@@ -9587,25 +9585,25 @@
         <v>0</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="T82" s="1">
         <v>29</v>
@@ -9614,7 +9612,7 @@
         <v>2</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="W82" s="1">
         <v>28.5</v>
@@ -9632,16 +9630,16 @@
         <v>0</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -9649,7 +9647,7 @@
         <v>10523</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C83" s="1">
         <v>7</v>
@@ -9682,25 +9680,25 @@
         <v>0.1</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="T83" s="1">
         <v>7</v>
@@ -9709,7 +9707,7 @@
         <v>6</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W83" s="1">
         <v>39</v>
@@ -9727,16 +9725,16 @@
         <v>1</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -9744,7 +9742,7 @@
         <v>10529</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C84" s="1">
         <v>5</v>
@@ -9777,25 +9775,25 @@
         <v>0</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="T84" s="1">
         <v>25</v>
@@ -9804,7 +9802,7 @@
         <v>6</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="W84" s="1">
         <v>24</v>
@@ -9822,16 +9820,16 @@
         <v>0</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -9839,7 +9837,7 @@
         <v>10529</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C85" s="1">
         <v>5</v>
@@ -9872,25 +9870,25 @@
         <v>0</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="T85" s="1">
         <v>8</v>
@@ -9899,7 +9897,7 @@
         <v>3</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="W85" s="1">
         <v>12.5</v>
@@ -9917,16 +9915,16 @@
         <v>0</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -9934,7 +9932,7 @@
         <v>10529</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
@@ -9967,25 +9965,25 @@
         <v>0</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T86" s="1">
         <v>15</v>
@@ -9994,7 +9992,7 @@
         <v>4</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W86" s="1">
         <v>36</v>
@@ -10012,16 +10010,16 @@
         <v>0</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -10029,7 +10027,7 @@
         <v>10532</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C87" s="1">
         <v>7</v>
@@ -10062,25 +10060,25 @@
         <v>0</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P87" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="R87" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T87" s="1">
         <v>13</v>
@@ -10089,7 +10087,7 @@
         <v>8</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W87" s="1">
         <v>25.89</v>
@@ -10107,16 +10105,16 @@
         <v>0</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD87" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -10124,7 +10122,7 @@
         <v>10532</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C88" s="1">
         <v>7</v>
@@ -10157,25 +10155,25 @@
         <v>0</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N88" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P88" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P88" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="R88" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="T88" s="1">
         <v>2</v>
@@ -10184,7 +10182,7 @@
         <v>2</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W88" s="1">
         <v>17</v>
@@ -10202,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -10219,7 +10217,7 @@
         <v>10534</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C89" s="1">
         <v>8</v>
@@ -10252,25 +10250,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T89" s="1">
         <v>13</v>
@@ -10279,7 +10277,7 @@
         <v>8</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W89" s="1">
         <v>25.89</v>
@@ -10297,16 +10295,16 @@
         <v>0</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -10314,7 +10312,7 @@
         <v>10534</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C90" s="1">
         <v>8</v>
@@ -10347,25 +10345,25 @@
         <v>0.2</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T90" s="1">
         <v>19</v>
@@ -10374,7 +10372,7 @@
         <v>8</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W90" s="1">
         <v>18.399999999999999</v>
@@ -10392,16 +10390,16 @@
         <v>0</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -10409,7 +10407,7 @@
         <v>10534</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C91" s="1">
         <v>8</v>
@@ -10442,25 +10440,25 @@
         <v>0.2</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="T91" s="1">
         <v>25</v>
@@ -10469,7 +10467,7 @@
         <v>6</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="W91" s="1">
         <v>7.45</v>
@@ -10487,16 +10485,16 @@
         <v>0</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -10504,7 +10502,7 @@
         <v>10558</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -10537,25 +10535,25 @@
         <v>0</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="T92" s="1">
         <v>22</v>
@@ -10564,7 +10562,7 @@
         <v>3</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="W92" s="1">
         <v>9.5</v>
@@ -10582,16 +10580,16 @@
         <v>0</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -10599,7 +10597,7 @@
         <v>10558</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -10632,25 +10630,25 @@
         <v>0</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T93" s="1">
         <v>24</v>
@@ -10659,7 +10657,7 @@
         <v>7</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W93" s="1">
         <v>53</v>
@@ -10677,16 +10675,16 @@
         <v>0</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
@@ -10694,7 +10692,7 @@
         <v>10558</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -10727,25 +10725,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="T94" s="1">
         <v>24</v>
@@ -10754,7 +10752,7 @@
         <v>5</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="W94" s="1">
         <v>7</v>
@@ -10772,16 +10770,16 @@
         <v>0</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -10789,7 +10787,7 @@
         <v>10558</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -10822,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T95" s="1">
         <v>24</v>
@@ -10849,7 +10847,7 @@
         <v>6</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W95" s="1">
         <v>32.799999999999997</v>
@@ -10867,16 +10865,16 @@
         <v>1</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -10884,7 +10882,7 @@
         <v>10558</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -10917,25 +10915,25 @@
         <v>0</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="T96" s="1">
         <v>17</v>
@@ -10944,7 +10942,7 @@
         <v>8</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W96" s="1">
         <v>15</v>
@@ -10962,16 +10960,16 @@
         <v>0</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -10979,7 +10977,7 @@
         <v>10596</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C97" s="1">
         <v>8</v>
@@ -11012,25 +11010,25 @@
         <v>0.2</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T97" s="1">
         <v>26</v>
@@ -11039,7 +11037,7 @@
         <v>5</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W97" s="1">
         <v>38</v>
@@ -11057,16 +11055,16 @@
         <v>0</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -11074,7 +11072,7 @@
         <v>10596</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="1">
         <v>8</v>
@@ -11107,25 +11105,25 @@
         <v>0.2</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T98" s="1">
         <v>7</v>
@@ -11134,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="W98" s="1">
         <v>43.9</v>
@@ -11152,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -11169,7 +11167,7 @@
         <v>10596</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C99" s="1">
         <v>8</v>
@@ -11202,25 +11200,25 @@
         <v>0.2</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="T99" s="1">
         <v>12</v>
@@ -11229,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="W99" s="1">
         <v>7.75</v>
@@ -11247,16 +11245,16 @@
         <v>0</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE99" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -11264,7 +11262,7 @@
         <v>10620</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C100" s="1">
         <v>2</v>
@@ -11297,25 +11295,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q100" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S100" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="T100" s="1">
         <v>10</v>
@@ -11324,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="W100" s="1">
         <v>4.5</v>
@@ -11342,16 +11340,16 @@
         <v>1</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE100" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -11359,7 +11357,7 @@
         <v>10620</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
@@ -11392,25 +11390,25 @@
         <v>0</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="T101" s="1">
         <v>24</v>
@@ -11419,7 +11417,7 @@
         <v>5</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="W101" s="1">
         <v>7</v>
@@ -11437,16 +11435,16 @@
         <v>0</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -11454,7 +11452,7 @@
         <v>10621</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C102" s="1">
         <v>4</v>
@@ -11487,25 +11485,25 @@
         <v>0</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T102" s="1">
         <v>8</v>
@@ -11514,7 +11512,7 @@
         <v>3</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="W102" s="1">
         <v>9.1999999999999993</v>
@@ -11532,16 +11530,16 @@
         <v>0</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AD102" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE102" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -11549,7 +11547,7 @@
         <v>10624</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C103" s="1">
         <v>4</v>
@@ -11582,25 +11580,25 @@
         <v>0</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T103" s="1">
         <v>12</v>
@@ -11609,7 +11607,7 @@
         <v>7</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W103" s="1">
         <v>45.6</v>
@@ -11627,16 +11625,16 @@
         <v>1</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE103" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -11644,7 +11642,7 @@
         <v>10624</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C104" s="1">
         <v>4</v>
@@ -11677,25 +11675,25 @@
         <v>0</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="T104" s="1">
         <v>12</v>
@@ -11704,7 +11702,7 @@
         <v>6</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="W104" s="1">
         <v>123.79</v>
@@ -11722,16 +11720,16 @@
         <v>1</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE104" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
@@ -11739,7 +11737,7 @@
         <v>10624</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -11772,25 +11770,25 @@
         <v>0</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T105" s="1">
         <v>20</v>
@@ -11799,7 +11797,7 @@
         <v>2</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="W105" s="1">
         <v>19.45</v>
@@ -11817,16 +11815,16 @@
         <v>0</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC105" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD105" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -11834,7 +11832,7 @@
         <v>10625</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C106" s="1">
         <v>3</v>
@@ -11867,25 +11865,25 @@
         <v>0</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T106" s="1">
         <v>6</v>
@@ -11894,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W106" s="1">
         <v>23.25</v>
@@ -11912,16 +11910,16 @@
         <v>0</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
@@ -11929,7 +11927,7 @@
         <v>10625</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C107" s="1">
         <v>3</v>
@@ -11962,25 +11960,25 @@
         <v>0</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="T107" s="1">
         <v>20</v>
@@ -11989,7 +11987,7 @@
         <v>5</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="W107" s="1">
         <v>14</v>
@@ -12007,16 +12005,16 @@
         <v>1</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
@@ -12024,7 +12022,7 @@
         <v>10625</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C108" s="1">
         <v>3</v>
@@ -12057,25 +12055,25 @@
         <v>0</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T108" s="1">
         <v>28</v>
@@ -12084,7 +12082,7 @@
         <v>4</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W108" s="1">
         <v>34</v>
@@ -12102,20 +12100,20 @@
         <v>0</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE108"/>
+  <autoFilter ref="A1:AE108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pakaasa.xlsx
+++ b/Pakaasa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\paakasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99094B-841A-4DE9-97A5-ADAD01575245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935DDE2A-3D28-43E0-8370-90C6F701C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="pakaasa" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pakaasa!$A$1:$AE$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pakaasa!$A$1:$AF$108</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="314">
   <si>
     <t>orderID</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>employeesLastName</t>
+  </si>
+  <si>
+    <t>productUnitPrice</t>
   </si>
 </sst>
 </file>
@@ -1811,9 +1814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE108"/>
+  <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1839,20 +1844,21 @@
     <col min="20" max="20" width="15.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="29" style="1" customWidth="1"/>
-    <col min="30" max="30" width="29.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="33.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="24.28515625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="17.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29" style="1" customWidth="1"/>
+    <col min="31" max="31" width="29.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="33.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="24.28515625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,34 +1926,37 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10272</v>
       </c>
@@ -2018,31 +2027,34 @@
         <v>34.799999999999997</v>
       </c>
       <c r="X2" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Y2" s="1">
         <v>14</v>
       </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
       <c r="Z2" s="1">
         <v>0</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10249</v>
       </c>
@@ -2113,31 +2125,34 @@
         <v>23.25</v>
       </c>
       <c r="X3" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="Y3" s="1">
         <v>35</v>
       </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
       <c r="Z3" s="1">
         <v>0</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10249</v>
       </c>
@@ -2208,31 +2223,34 @@
         <v>53</v>
       </c>
       <c r="X4" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="1">
         <v>20</v>
       </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
       <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
         <v>10</v>
       </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10250</v>
       </c>
@@ -2303,31 +2321,34 @@
         <v>53</v>
       </c>
       <c r="X5" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="1">
         <v>20</v>
       </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
       <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
         <v>10</v>
       </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10255</v>
       </c>
@@ -2398,31 +2419,34 @@
         <v>55</v>
       </c>
       <c r="X6" s="1">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="1">
         <v>79</v>
       </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10250</v>
       </c>
@@ -2493,31 +2517,34 @@
         <v>9.65</v>
       </c>
       <c r="X7" s="1">
+        <v>9.65</v>
+      </c>
+      <c r="Y7" s="1">
         <v>85</v>
       </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>10</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10255</v>
       </c>
@@ -2588,31 +2615,34 @@
         <v>17.45</v>
       </c>
       <c r="X8" s="1">
+        <v>17.45</v>
+      </c>
+      <c r="Y8" s="1">
         <v>29</v>
       </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
       <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
         <v>10</v>
       </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AE8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10253</v>
       </c>
@@ -2683,31 +2713,34 @@
         <v>12.5</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <v>70</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>20</v>
       </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10272</v>
       </c>
@@ -2778,31 +2811,34 @@
         <v>12.5</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <v>70</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>20</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10253</v>
       </c>
@@ -2873,31 +2909,34 @@
         <v>20</v>
       </c>
       <c r="X11" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="1">
         <v>10</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>60</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>15</v>
       </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10272</v>
       </c>
@@ -2968,31 +3007,34 @@
         <v>81</v>
       </c>
       <c r="X12" s="1">
+        <v>81</v>
+      </c>
+      <c r="Y12" s="1">
         <v>40</v>
       </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
       <c r="Z12" s="1">
         <v>0</v>
       </c>
       <c r="AA12" s="1">
         <v>0</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AE12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF12" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10255</v>
       </c>
@@ -3063,31 +3105,34 @@
         <v>19</v>
       </c>
       <c r="X13" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="1">
         <v>112</v>
       </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
       <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
         <v>20</v>
       </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10273</v>
       </c>
@@ -3161,7 +3206,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
@@ -3169,20 +3214,23 @@
       <c r="AA14" s="1">
         <v>0</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10273</v>
       </c>
@@ -3253,31 +3301,34 @@
         <v>12.5</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
         <v>70</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>20</v>
       </c>
-      <c r="AA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10273</v>
       </c>
@@ -3348,31 +3399,34 @@
         <v>2.5</v>
       </c>
       <c r="X16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Y16" s="1">
         <v>112</v>
       </c>
-      <c r="Y16" s="1">
-        <v>0</v>
-      </c>
       <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
         <v>20</v>
       </c>
-      <c r="AA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10273</v>
       </c>
@@ -3443,31 +3497,34 @@
         <v>18.399999999999999</v>
       </c>
       <c r="X17" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Y17" s="1">
         <v>123</v>
       </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
       <c r="Z17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10273</v>
       </c>
@@ -3538,31 +3595,34 @@
         <v>18</v>
       </c>
       <c r="X18" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="1">
         <v>57</v>
       </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
       <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
         <v>20</v>
       </c>
-      <c r="AA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10276</v>
       </c>
@@ -3636,7 +3696,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -3644,20 +3704,23 @@
       <c r="AA19" s="1">
         <v>0</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10276</v>
       </c>
@@ -3728,31 +3791,34 @@
         <v>6</v>
       </c>
       <c r="X20" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="1">
         <v>24</v>
       </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
       <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
         <v>5</v>
       </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10293</v>
       </c>
@@ -3823,31 +3889,34 @@
         <v>62.5</v>
       </c>
       <c r="X21" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="Y21" s="1">
         <v>42</v>
       </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
       <c r="Z21" s="1">
         <v>0</v>
       </c>
       <c r="AA21" s="1">
         <v>0</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF21" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10298</v>
       </c>
@@ -3918,31 +3987,34 @@
         <v>19</v>
       </c>
       <c r="X22" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y22" s="1">
         <v>17</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>40</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>25</v>
       </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10298</v>
       </c>
@@ -4013,31 +4085,34 @@
         <v>19</v>
       </c>
       <c r="X23" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="1">
         <v>112</v>
       </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
       <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
         <v>20</v>
       </c>
-      <c r="AA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10304</v>
       </c>
@@ -4108,31 +4183,34 @@
         <v>20</v>
       </c>
       <c r="X24" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="1">
         <v>10</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>60</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>15</v>
       </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10304</v>
       </c>
@@ -4203,31 +4281,34 @@
         <v>55</v>
       </c>
       <c r="X25" s="1">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="1">
         <v>79</v>
       </c>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
       <c r="Z25" s="1">
         <v>0</v>
       </c>
       <c r="AA25" s="1">
         <v>0</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AE25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10304</v>
       </c>
@@ -4298,31 +4379,34 @@
         <v>21.5</v>
       </c>
       <c r="X26" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="Y26" s="1">
         <v>26</v>
       </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
       <c r="Z26" s="1">
         <v>0</v>
       </c>
       <c r="AA26" s="1">
         <v>0</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AE26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10321</v>
       </c>
@@ -4393,31 +4477,34 @@
         <v>18</v>
       </c>
       <c r="X27" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y27" s="1">
         <v>20</v>
       </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
       <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>15</v>
       </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AE27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AE27" s="1" t="s">
+      <c r="AF27" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10344</v>
       </c>
@@ -4488,31 +4575,34 @@
         <v>22</v>
       </c>
       <c r="X28" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y28" s="1">
         <v>53</v>
       </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
       <c r="Z28" s="1">
         <v>0</v>
       </c>
       <c r="AA28" s="1">
         <v>0</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AE28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE28" s="1" t="s">
+      <c r="AF28" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10344</v>
       </c>
@@ -4583,31 +4673,34 @@
         <v>40</v>
       </c>
       <c r="X29" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="1">
         <v>6</v>
       </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
       <c r="Z29" s="1">
         <v>0</v>
       </c>
       <c r="AA29" s="1">
         <v>0</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AE29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AE29" s="1" t="s">
+      <c r="AF29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10346</v>
       </c>
@@ -4678,31 +4771,34 @@
         <v>38</v>
       </c>
       <c r="X30" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y30" s="1">
         <v>21</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>10</v>
       </c>
-      <c r="Z30" s="1">
-        <v>30</v>
-      </c>
       <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD30" s="1" t="s">
+      <c r="AE30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE30" s="1" t="s">
+      <c r="AF30" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10372</v>
       </c>
@@ -4773,31 +4869,34 @@
         <v>81</v>
       </c>
       <c r="X31" s="1">
+        <v>81</v>
+      </c>
+      <c r="Y31" s="1">
         <v>40</v>
       </c>
-      <c r="Y31" s="1">
-        <v>0</v>
-      </c>
       <c r="Z31" s="1">
         <v>0</v>
       </c>
       <c r="AA31" s="1">
         <v>0</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AE31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF31" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10372</v>
       </c>
@@ -4868,31 +4967,34 @@
         <v>263.5</v>
       </c>
       <c r="X32" s="1">
+        <v>263.5</v>
+      </c>
+      <c r="Y32" s="1">
         <v>17</v>
       </c>
-      <c r="Y32" s="1">
-        <v>0</v>
-      </c>
       <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
         <v>15</v>
       </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AD32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AD32" s="1" t="s">
+      <c r="AE32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AE32" s="1" t="s">
+      <c r="AF32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10372</v>
       </c>
@@ -4963,31 +5065,34 @@
         <v>34</v>
       </c>
       <c r="X33" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y33" s="1">
         <v>19</v>
       </c>
-      <c r="Y33" s="1">
-        <v>0</v>
-      </c>
       <c r="Z33" s="1">
         <v>0</v>
       </c>
       <c r="AA33" s="1">
         <v>0</v>
       </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD33" s="1" t="s">
+      <c r="AE33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE33" s="1" t="s">
+      <c r="AF33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10372</v>
       </c>
@@ -5058,31 +5163,34 @@
         <v>34.799999999999997</v>
       </c>
       <c r="X34" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Y34" s="1">
         <v>14</v>
       </c>
-      <c r="Y34" s="1">
-        <v>0</v>
-      </c>
       <c r="Z34" s="1">
         <v>0</v>
       </c>
       <c r="AA34" s="1">
         <v>0</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD34" s="1" t="s">
+      <c r="AE34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE34" s="1" t="s">
+      <c r="AF34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>10373</v>
       </c>
@@ -5153,31 +5261,34 @@
         <v>13.25</v>
       </c>
       <c r="X35" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="Y35" s="1">
         <v>62</v>
       </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
       <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
         <v>20</v>
       </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AD35" s="1" t="s">
+      <c r="AE35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AE35" s="1" t="s">
+      <c r="AF35" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10373</v>
       </c>
@@ -5248,31 +5359,34 @@
         <v>21.5</v>
       </c>
       <c r="X36" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="Y36" s="1">
         <v>26</v>
       </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
       <c r="Z36" s="1">
         <v>0</v>
       </c>
       <c r="AA36" s="1">
         <v>0</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AE36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AF36" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10375</v>
       </c>
@@ -5343,31 +5457,34 @@
         <v>23.25</v>
       </c>
       <c r="X37" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="Y37" s="1">
         <v>35</v>
       </c>
-      <c r="Y37" s="1">
-        <v>0</v>
-      </c>
       <c r="Z37" s="1">
         <v>0</v>
       </c>
       <c r="AA37" s="1">
         <v>0</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD37" s="1" t="s">
+      <c r="AE37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE37" s="1" t="s">
+      <c r="AF37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10377</v>
       </c>
@@ -5438,31 +5555,34 @@
         <v>45.6</v>
       </c>
       <c r="X38" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="Y38" s="1">
         <v>26</v>
       </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
       <c r="Z38" s="1">
         <v>0</v>
       </c>
       <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
         <v>1</v>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AD38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AD38" s="1" t="s">
+      <c r="AE38" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE38" s="1" t="s">
+      <c r="AF38" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10377</v>
       </c>
@@ -5533,31 +5653,34 @@
         <v>18</v>
       </c>
       <c r="X39" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y39" s="1">
         <v>69</v>
       </c>
-      <c r="Y39" s="1">
-        <v>0</v>
-      </c>
       <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
         <v>5</v>
       </c>
-      <c r="AA39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1" t="s">
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AD39" s="1" t="s">
+      <c r="AE39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AE39" s="1" t="s">
+      <c r="AF39" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10380</v>
       </c>
@@ -5628,31 +5751,34 @@
         <v>25.89</v>
       </c>
       <c r="X40" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="Y40" s="1">
         <v>10</v>
       </c>
-      <c r="Y40" s="1">
-        <v>0</v>
-      </c>
       <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
         <v>15</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AD40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD40" s="1" t="s">
+      <c r="AE40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AE40" s="1" t="s">
+      <c r="AF40" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10380</v>
       </c>
@@ -5723,7 +5849,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -5732,22 +5858,25 @@
         <v>0</v>
       </c>
       <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
         <v>1</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD41" s="1" t="s">
+      <c r="AE41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE41" s="1" t="s">
+      <c r="AF41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10395</v>
       </c>
@@ -5818,31 +5947,34 @@
         <v>36</v>
       </c>
       <c r="X42" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y42" s="1">
         <v>26</v>
       </c>
-      <c r="Y42" s="1">
-        <v>0</v>
-      </c>
       <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
         <v>15</v>
       </c>
-      <c r="AA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD42" s="1" t="s">
+      <c r="AE42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE42" s="1" t="s">
+      <c r="AF42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10400</v>
       </c>
@@ -5913,31 +6045,34 @@
         <v>18</v>
       </c>
       <c r="X43" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y43" s="1">
         <v>20</v>
       </c>
-      <c r="Y43" s="1">
-        <v>0</v>
-      </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>15</v>
       </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AD43" s="1" t="s">
+      <c r="AE43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AE43" s="1" t="s">
+      <c r="AF43" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10401</v>
       </c>
@@ -6008,31 +6143,34 @@
         <v>25.89</v>
       </c>
       <c r="X44" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="Y44" s="1">
         <v>10</v>
       </c>
-      <c r="Y44" s="1">
-        <v>0</v>
-      </c>
       <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
         <v>15</v>
       </c>
-      <c r="AA44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD44" s="1" t="s">
+      <c r="AE44" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AE44" s="1" t="s">
+      <c r="AF44" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10401</v>
       </c>
@@ -6103,31 +6241,34 @@
         <v>38</v>
       </c>
       <c r="X45" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y45" s="1">
         <v>21</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Z45" s="1">
         <v>10</v>
       </c>
-      <c r="Z45" s="1">
-        <v>30</v>
-      </c>
       <c r="AA45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD45" s="1" t="s">
+      <c r="AE45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE45" s="1" t="s">
+      <c r="AF45" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10401</v>
       </c>
@@ -6198,31 +6339,34 @@
         <v>21.05</v>
       </c>
       <c r="X46" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="Y46" s="1">
         <v>76</v>
       </c>
-      <c r="Y46" s="1">
-        <v>0</v>
-      </c>
       <c r="Z46" s="1">
         <v>0</v>
       </c>
       <c r="AA46" s="1">
         <v>0</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AD46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD46" s="1" t="s">
+      <c r="AE46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE46" s="1" t="s">
+      <c r="AF46" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10401</v>
       </c>
@@ -6293,31 +6437,34 @@
         <v>21.5</v>
       </c>
       <c r="X47" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="Y47" s="1">
         <v>26</v>
       </c>
-      <c r="Y47" s="1">
-        <v>0</v>
-      </c>
       <c r="Z47" s="1">
         <v>0</v>
       </c>
       <c r="AA47" s="1">
         <v>0</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC47" s="1" t="s">
+      <c r="AD47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD47" s="1" t="s">
+      <c r="AE47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE47" s="1" t="s">
+      <c r="AF47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10406</v>
       </c>
@@ -6388,31 +6535,34 @@
         <v>18</v>
       </c>
       <c r="X48" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y48" s="1">
         <v>39</v>
       </c>
-      <c r="Y48" s="1">
-        <v>0</v>
-      </c>
       <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
         <v>10</v>
       </c>
-      <c r="AA48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC48" s="1" t="s">
+      <c r="AD48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD48" s="1" t="s">
+      <c r="AE48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AE48" s="1" t="s">
+      <c r="AF48" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>10406</v>
       </c>
@@ -6483,31 +6633,34 @@
         <v>10</v>
       </c>
       <c r="X49" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="1">
         <v>3</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Z49" s="1">
         <v>40</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="AA49" s="1">
         <v>5</v>
       </c>
-      <c r="AA49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AD49" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AE49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF49" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>10406</v>
       </c>
@@ -6578,31 +6731,34 @@
         <v>45.6</v>
       </c>
       <c r="X50" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="Y50" s="1">
         <v>26</v>
       </c>
-      <c r="Y50" s="1">
-        <v>0</v>
-      </c>
       <c r="Z50" s="1">
         <v>0</v>
       </c>
       <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
         <v>1</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AC50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC50" s="1" t="s">
+      <c r="AD50" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AD50" s="1" t="s">
+      <c r="AE50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE50" s="1" t="s">
+      <c r="AF50" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>10406</v>
       </c>
@@ -6673,31 +6829,34 @@
         <v>19</v>
       </c>
       <c r="X51" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y51" s="1">
         <v>112</v>
       </c>
-      <c r="Y51" s="1">
-        <v>0</v>
-      </c>
       <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
         <v>20</v>
       </c>
-      <c r="AA51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC51" s="1" t="s">
+      <c r="AD51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD51" s="1" t="s">
+      <c r="AE51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE51" s="1" t="s">
+      <c r="AF51" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>10406</v>
       </c>
@@ -6768,31 +6927,34 @@
         <v>18.399999999999999</v>
       </c>
       <c r="X52" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Y52" s="1">
         <v>123</v>
       </c>
-      <c r="Y52" s="1">
-        <v>0</v>
-      </c>
       <c r="Z52" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC52" s="1" t="s">
+      <c r="AD52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD52" s="1" t="s">
+      <c r="AE52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE52" s="1" t="s">
+      <c r="AF52" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>10410</v>
       </c>
@@ -6863,31 +7025,34 @@
         <v>2.5</v>
       </c>
       <c r="X53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Y53" s="1">
         <v>112</v>
       </c>
-      <c r="Y53" s="1">
-        <v>0</v>
-      </c>
       <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
         <v>20</v>
       </c>
-      <c r="AA53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AD53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD53" s="1" t="s">
+      <c r="AE53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE53" s="1" t="s">
+      <c r="AF53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>10411</v>
       </c>
@@ -6958,31 +7123,34 @@
         <v>19.45</v>
       </c>
       <c r="X54" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="Y54" s="1">
         <v>27</v>
       </c>
-      <c r="Y54" s="1">
-        <v>0</v>
-      </c>
       <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
         <v>15</v>
       </c>
-      <c r="AA54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC54" s="1" t="s">
+      <c r="AD54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AD54" s="1" t="s">
+      <c r="AE54" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AE54" s="1" t="s">
+      <c r="AF54" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10411</v>
       </c>
@@ -7053,31 +7221,34 @@
         <v>55</v>
       </c>
       <c r="X55" s="1">
+        <v>55</v>
+      </c>
+      <c r="Y55" s="1">
         <v>79</v>
       </c>
-      <c r="Y55" s="1">
-        <v>0</v>
-      </c>
       <c r="Z55" s="1">
         <v>0</v>
       </c>
       <c r="AA55" s="1">
         <v>0</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC55" s="1" t="s">
+      <c r="AD55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD55" s="1" t="s">
+      <c r="AE55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE55" s="1" t="s">
+      <c r="AF55" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10435</v>
       </c>
@@ -7148,31 +7319,34 @@
         <v>19</v>
       </c>
       <c r="X56" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y56" s="1">
         <v>17</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Z56" s="1">
         <v>40</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="AA56" s="1">
         <v>25</v>
       </c>
-      <c r="AA56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC56" s="1" t="s">
+      <c r="AD56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD56" s="1" t="s">
+      <c r="AE56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AE56" s="1" t="s">
+      <c r="AF56" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>10435</v>
       </c>
@@ -7243,31 +7417,34 @@
         <v>34.799999999999997</v>
       </c>
       <c r="X57" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Y57" s="1">
         <v>14</v>
       </c>
-      <c r="Y57" s="1">
-        <v>0</v>
-      </c>
       <c r="Z57" s="1">
         <v>0</v>
       </c>
       <c r="AA57" s="1">
         <v>0</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC57" s="1" t="s">
+      <c r="AD57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD57" s="1" t="s">
+      <c r="AE57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE57" s="1" t="s">
+      <c r="AF57" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10438</v>
       </c>
@@ -7338,31 +7515,34 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="X58" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Y58" s="1">
         <v>25</v>
       </c>
-      <c r="Y58" s="1">
-        <v>0</v>
-      </c>
       <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
         <v>5</v>
       </c>
-      <c r="AA58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="1" t="s">
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC58" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AD58" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AE58" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF58" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10438</v>
       </c>
@@ -7433,31 +7613,34 @@
         <v>14</v>
       </c>
       <c r="X59" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y59" s="1">
         <v>111</v>
       </c>
-      <c r="Y59" s="1">
-        <v>0</v>
-      </c>
       <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1">
         <v>15</v>
       </c>
-      <c r="AA59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="1" t="s">
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC59" s="1" t="s">
+      <c r="AD59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AD59" s="1" t="s">
+      <c r="AE59" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AE59" s="1" t="s">
+      <c r="AF59" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10438</v>
       </c>
@@ -7528,31 +7711,34 @@
         <v>19.5</v>
       </c>
       <c r="X60" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="Y60" s="1">
         <v>36</v>
       </c>
-      <c r="Y60" s="1">
-        <v>0</v>
-      </c>
       <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
         <v>20</v>
       </c>
-      <c r="AA60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="1" t="s">
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC60" s="1" t="s">
+      <c r="AD60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD60" s="1" t="s">
+      <c r="AE60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE60" s="1" t="s">
+      <c r="AF60" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>10441</v>
       </c>
@@ -7623,31 +7809,34 @@
         <v>43.9</v>
       </c>
       <c r="X61" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="Y61" s="1">
         <v>49</v>
       </c>
-      <c r="Y61" s="1">
-        <v>0</v>
-      </c>
       <c r="Z61" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AC61" s="1" t="s">
+      <c r="AD61" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AD61" s="1" t="s">
+      <c r="AE61" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AE61" s="1" t="s">
+      <c r="AF61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>10469</v>
       </c>
@@ -7718,31 +7907,34 @@
         <v>19</v>
       </c>
       <c r="X62" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y62" s="1">
         <v>17</v>
       </c>
-      <c r="Y62" s="1">
+      <c r="Z62" s="1">
         <v>40</v>
       </c>
-      <c r="Z62" s="1">
+      <c r="AA62" s="1">
         <v>25</v>
       </c>
-      <c r="AA62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="1" t="s">
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC62" s="1" t="s">
+      <c r="AD62" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD62" s="1" t="s">
+      <c r="AE62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AE62" s="1" t="s">
+      <c r="AF62" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>10469</v>
       </c>
@@ -7813,31 +8005,34 @@
         <v>17.45</v>
       </c>
       <c r="X63" s="1">
+        <v>17.45</v>
+      </c>
+      <c r="Y63" s="1">
         <v>29</v>
       </c>
-      <c r="Y63" s="1">
-        <v>0</v>
-      </c>
       <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
         <v>10</v>
       </c>
-      <c r="AA63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC63" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="AD63" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AE63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF63" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>10469</v>
       </c>
@@ -7908,31 +8103,34 @@
         <v>19.45</v>
       </c>
       <c r="X64" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="Y64" s="1">
         <v>27</v>
       </c>
-      <c r="Y64" s="1">
-        <v>0</v>
-      </c>
       <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
         <v>15</v>
       </c>
-      <c r="AA64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="1" t="s">
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC64" s="1" t="s">
+      <c r="AD64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AD64" s="1" t="s">
+      <c r="AE64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AE64" s="1" t="s">
+      <c r="AF64" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>10471</v>
       </c>
@@ -8003,31 +8201,34 @@
         <v>30</v>
       </c>
       <c r="X65" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y65" s="1">
         <v>15</v>
       </c>
-      <c r="Y65" s="1">
-        <v>0</v>
-      </c>
       <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
         <v>10</v>
       </c>
-      <c r="AA65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC65" s="1" t="s">
+      <c r="AD65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AD65" s="1" t="s">
+      <c r="AE65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AE65" s="1" t="s">
+      <c r="AF65" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>10471</v>
       </c>
@@ -8098,31 +8299,34 @@
         <v>38</v>
       </c>
       <c r="X66" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y66" s="1">
         <v>21</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Z66" s="1">
         <v>10</v>
       </c>
-      <c r="Z66" s="1">
-        <v>30</v>
-      </c>
       <c r="AA66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC66" s="1" t="s">
+      <c r="AD66" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD66" s="1" t="s">
+      <c r="AE66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE66" s="1" t="s">
+      <c r="AF66" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>10472</v>
       </c>
@@ -8193,31 +8397,34 @@
         <v>4.5</v>
       </c>
       <c r="X67" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="Y67" s="1">
         <v>20</v>
       </c>
-      <c r="Y67" s="1">
-        <v>0</v>
-      </c>
       <c r="Z67" s="1">
         <v>0</v>
       </c>
       <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
         <v>1</v>
       </c>
-      <c r="AB67" s="1" t="s">
+      <c r="AC67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC67" s="1" t="s">
+      <c r="AD67" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD67" s="1" t="s">
+      <c r="AE67" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE67" s="1" t="s">
+      <c r="AF67" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>10472</v>
       </c>
@@ -8288,31 +8495,34 @@
         <v>53</v>
       </c>
       <c r="X68" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y68" s="1">
         <v>20</v>
       </c>
-      <c r="Y68" s="1">
-        <v>0</v>
-      </c>
       <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="1">
         <v>10</v>
       </c>
-      <c r="AA68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC68" s="1" t="s">
+      <c r="AD68" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD68" s="1" t="s">
+      <c r="AE68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE68" s="1" t="s">
+      <c r="AF68" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>10495</v>
       </c>
@@ -8383,31 +8593,34 @@
         <v>9</v>
       </c>
       <c r="X69" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y69" s="1">
         <v>61</v>
       </c>
-      <c r="Y69" s="1">
-        <v>0</v>
-      </c>
       <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
         <v>25</v>
       </c>
-      <c r="AA69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="1" t="s">
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC69" s="1" t="s">
+      <c r="AD69" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AD69" s="1" t="s">
+      <c r="AE69" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AE69" s="1" t="s">
+      <c r="AF69" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>10495</v>
       </c>
@@ -8478,31 +8691,34 @@
         <v>9.65</v>
       </c>
       <c r="X70" s="1">
+        <v>9.65</v>
+      </c>
+      <c r="Y70" s="1">
         <v>85</v>
       </c>
-      <c r="Y70" s="1">
-        <v>0</v>
-      </c>
       <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1">
         <v>10</v>
       </c>
-      <c r="AA70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="1" t="s">
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC70" s="1" t="s">
+      <c r="AD70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD70" s="1" t="s">
+      <c r="AE70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE70" s="1" t="s">
+      <c r="AF70" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>10495</v>
       </c>
@@ -8573,31 +8789,34 @@
         <v>13</v>
       </c>
       <c r="X71" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y71" s="1">
         <v>32</v>
       </c>
-      <c r="Y71" s="1">
-        <v>0</v>
-      </c>
       <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
         <v>15</v>
       </c>
-      <c r="AA71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="1" t="s">
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC71" s="1" t="s">
+      <c r="AD71" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AD71" s="1" t="s">
+      <c r="AE71" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE71" s="1" t="s">
+      <c r="AF71" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>10497</v>
       </c>
@@ -8668,31 +8887,34 @@
         <v>38</v>
       </c>
       <c r="X72" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y72" s="1">
         <v>21</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="Z72" s="1">
         <v>10</v>
       </c>
-      <c r="Z72" s="1">
-        <v>30</v>
-      </c>
       <c r="AA72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC72" s="1" t="s">
+      <c r="AD72" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD72" s="1" t="s">
+      <c r="AE72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE72" s="1" t="s">
+      <c r="AF72" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>10497</v>
       </c>
@@ -8763,31 +8985,34 @@
         <v>34.799999999999997</v>
       </c>
       <c r="X73" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Y73" s="1">
         <v>14</v>
       </c>
-      <c r="Y73" s="1">
-        <v>0</v>
-      </c>
       <c r="Z73" s="1">
         <v>0</v>
       </c>
       <c r="AA73" s="1">
         <v>0</v>
       </c>
-      <c r="AB73" s="1" t="s">
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC73" s="1" t="s">
+      <c r="AD73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD73" s="1" t="s">
+      <c r="AE73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE73" s="1" t="s">
+      <c r="AF73" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>10497</v>
       </c>
@@ -8858,31 +9083,34 @@
         <v>13</v>
       </c>
       <c r="X74" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y74" s="1">
         <v>32</v>
       </c>
-      <c r="Y74" s="1">
-        <v>0</v>
-      </c>
       <c r="Z74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1">
         <v>15</v>
       </c>
-      <c r="AA74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="1" t="s">
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC74" s="1" t="s">
+      <c r="AD74" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AD74" s="1" t="s">
+      <c r="AE74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE74" s="1" t="s">
+      <c r="AF74" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>10498</v>
       </c>
@@ -8953,31 +9181,34 @@
         <v>4.5</v>
       </c>
       <c r="X75" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="Y75" s="1">
         <v>20</v>
       </c>
-      <c r="Y75" s="1">
-        <v>0</v>
-      </c>
       <c r="Z75" s="1">
         <v>0</v>
       </c>
       <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
         <v>1</v>
       </c>
-      <c r="AB75" s="1" t="s">
+      <c r="AC75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC75" s="1" t="s">
+      <c r="AD75" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD75" s="1" t="s">
+      <c r="AE75" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE75" s="1" t="s">
+      <c r="AF75" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10498</v>
       </c>
@@ -9048,31 +9279,34 @@
         <v>18.399999999999999</v>
       </c>
       <c r="X76" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Y76" s="1">
         <v>123</v>
       </c>
-      <c r="Y76" s="1">
-        <v>0</v>
-      </c>
       <c r="Z76" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC76" s="1" t="s">
+      <c r="AD76" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD76" s="1" t="s">
+      <c r="AE76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE76" s="1" t="s">
+      <c r="AF76" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10503</v>
       </c>
@@ -9143,31 +9377,34 @@
         <v>23.25</v>
       </c>
       <c r="X77" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="Y77" s="1">
         <v>35</v>
       </c>
-      <c r="Y77" s="1">
-        <v>0</v>
-      </c>
       <c r="Z77" s="1">
         <v>0</v>
       </c>
       <c r="AA77" s="1">
         <v>0</v>
       </c>
-      <c r="AB77" s="1" t="s">
+      <c r="AB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD77" s="1" t="s">
+      <c r="AE77" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE77" s="1" t="s">
+      <c r="AF77" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10503</v>
       </c>
@@ -9238,31 +9475,34 @@
         <v>21.05</v>
       </c>
       <c r="X78" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="Y78" s="1">
         <v>76</v>
       </c>
-      <c r="Y78" s="1">
-        <v>0</v>
-      </c>
       <c r="Z78" s="1">
         <v>0</v>
       </c>
       <c r="AA78" s="1">
         <v>0</v>
       </c>
-      <c r="AB78" s="1" t="s">
+      <c r="AB78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC78" s="1" t="s">
+      <c r="AD78" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD78" s="1" t="s">
+      <c r="AE78" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE78" s="1" t="s">
+      <c r="AF78" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>10504</v>
       </c>
@@ -9333,31 +9573,34 @@
         <v>19</v>
       </c>
       <c r="X79" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y79" s="1">
         <v>17</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Z79" s="1">
         <v>40</v>
       </c>
-      <c r="Z79" s="1">
+      <c r="AA79" s="1">
         <v>25</v>
       </c>
-      <c r="AA79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="1" t="s">
+      <c r="AB79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC79" s="1" t="s">
+      <c r="AD79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD79" s="1" t="s">
+      <c r="AE79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AE79" s="1" t="s">
+      <c r="AF79" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10504</v>
       </c>
@@ -9428,31 +9671,34 @@
         <v>10</v>
       </c>
       <c r="X80" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y80" s="1">
         <v>3</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Z80" s="1">
         <v>40</v>
       </c>
-      <c r="Z80" s="1">
+      <c r="AA80" s="1">
         <v>5</v>
       </c>
-      <c r="AA80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AB80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC80" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AD80" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AE80" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF80" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10504</v>
       </c>
@@ -9523,7 +9769,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="X81" s="1">
-        <v>0</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Y81" s="1">
         <v>0</v>
@@ -9532,22 +9778,25 @@
         <v>0</v>
       </c>
       <c r="AA81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="1">
         <v>1</v>
       </c>
-      <c r="AB81" s="1" t="s">
+      <c r="AC81" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AC81" s="1" t="s">
+      <c r="AD81" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD81" s="1" t="s">
+      <c r="AE81" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE81" s="1" t="s">
+      <c r="AF81" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>10504</v>
       </c>
@@ -9618,31 +9867,34 @@
         <v>28.5</v>
       </c>
       <c r="X82" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="Y82" s="1">
         <v>113</v>
       </c>
-      <c r="Y82" s="1">
-        <v>0</v>
-      </c>
       <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="1">
         <v>25</v>
       </c>
-      <c r="AA82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="1" t="s">
+      <c r="AB82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC82" s="1" t="s">
+      <c r="AD82" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AD82" s="1" t="s">
+      <c r="AE82" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AE82" s="1" t="s">
+      <c r="AF82" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10523</v>
       </c>
@@ -9713,7 +9965,7 @@
         <v>39</v>
       </c>
       <c r="X83" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Y83" s="1">
         <v>0</v>
@@ -9722,22 +9974,25 @@
         <v>0</v>
       </c>
       <c r="AA83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="1">
         <v>1</v>
       </c>
-      <c r="AB83" s="1" t="s">
+      <c r="AC83" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AC83" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="AD83" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AE83" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF83" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10529</v>
       </c>
@@ -9808,31 +10063,34 @@
         <v>24</v>
       </c>
       <c r="X84" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y84" s="1">
         <v>115</v>
       </c>
-      <c r="Y84" s="1">
-        <v>0</v>
-      </c>
       <c r="Z84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="1">
         <v>20</v>
       </c>
-      <c r="AA84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="1" t="s">
+      <c r="AB84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AC84" s="1" t="s">
+      <c r="AD84" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AD84" s="1" t="s">
+      <c r="AE84" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AE84" s="1" t="s">
+      <c r="AF84" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>10529</v>
       </c>
@@ -9903,31 +10161,34 @@
         <v>12.5</v>
       </c>
       <c r="X85" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="Y85" s="1">
         <v>6</v>
       </c>
-      <c r="Y85" s="1">
+      <c r="Z85" s="1">
         <v>10</v>
       </c>
-      <c r="Z85" s="1">
+      <c r="AA85" s="1">
         <v>15</v>
       </c>
-      <c r="AA85" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="1" t="s">
+      <c r="AB85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC85" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AD85" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AE85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF85" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>10529</v>
       </c>
@@ -9998,31 +10259,34 @@
         <v>36</v>
       </c>
       <c r="X86" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y86" s="1">
         <v>26</v>
       </c>
-      <c r="Y86" s="1">
-        <v>0</v>
-      </c>
       <c r="Z86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
         <v>15</v>
       </c>
-      <c r="AA86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="1" t="s">
+      <c r="AB86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC86" s="1" t="s">
+      <c r="AD86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD86" s="1" t="s">
+      <c r="AE86" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE86" s="1" t="s">
+      <c r="AF86" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>10532</v>
       </c>
@@ -10093,31 +10357,34 @@
         <v>25.89</v>
       </c>
       <c r="X87" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="Y87" s="1">
         <v>10</v>
       </c>
-      <c r="Y87" s="1">
-        <v>0</v>
-      </c>
       <c r="Z87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="1">
         <v>15</v>
       </c>
-      <c r="AA87" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="1" t="s">
+      <c r="AB87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC87" s="1" t="s">
+      <c r="AD87" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD87" s="1" t="s">
+      <c r="AE87" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AE87" s="1" t="s">
+      <c r="AF87" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>10532</v>
       </c>
@@ -10188,31 +10455,34 @@
         <v>17</v>
       </c>
       <c r="X88" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y88" s="1">
         <v>4</v>
       </c>
-      <c r="Y88" s="1">
+      <c r="Z88" s="1">
         <v>100</v>
       </c>
-      <c r="Z88" s="1">
+      <c r="AA88" s="1">
         <v>20</v>
       </c>
-      <c r="AA88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="1" t="s">
+      <c r="AB88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC88" s="1" t="s">
+      <c r="AD88" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD88" s="1" t="s">
+      <c r="AE88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE88" s="1" t="s">
+      <c r="AF88" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>10534</v>
       </c>
@@ -10283,31 +10553,34 @@
         <v>25.89</v>
       </c>
       <c r="X89" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="Y89" s="1">
         <v>10</v>
       </c>
-      <c r="Y89" s="1">
-        <v>0</v>
-      </c>
       <c r="Z89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="1">
         <v>15</v>
       </c>
-      <c r="AA89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AB89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC89" s="1" t="s">
+      <c r="AD89" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD89" s="1" t="s">
+      <c r="AE89" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AE89" s="1" t="s">
+      <c r="AF89" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>10534</v>
       </c>
@@ -10378,31 +10651,34 @@
         <v>18.399999999999999</v>
       </c>
       <c r="X90" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Y90" s="1">
         <v>123</v>
       </c>
-      <c r="Y90" s="1">
-        <v>0</v>
-      </c>
       <c r="Z90" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC90" s="1" t="s">
+      <c r="AD90" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD90" s="1" t="s">
+      <c r="AE90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE90" s="1" t="s">
+      <c r="AF90" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>10534</v>
       </c>
@@ -10473,31 +10749,34 @@
         <v>7.45</v>
       </c>
       <c r="X91" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="Y91" s="1">
         <v>21</v>
       </c>
-      <c r="Y91" s="1">
-        <v>0</v>
-      </c>
       <c r="Z91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="1">
         <v>10</v>
       </c>
-      <c r="AA91" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="1" t="s">
+      <c r="AB91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AC91" s="1" t="s">
+      <c r="AD91" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AD91" s="1" t="s">
+      <c r="AE91" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AE91" s="1" t="s">
+      <c r="AF91" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>10558</v>
       </c>
@@ -10568,31 +10847,34 @@
         <v>9.5</v>
       </c>
       <c r="X92" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="Y92" s="1">
         <v>36</v>
       </c>
-      <c r="Y92" s="1">
-        <v>0</v>
-      </c>
       <c r="Z92" s="1">
         <v>0</v>
       </c>
       <c r="AA92" s="1">
         <v>0</v>
       </c>
-      <c r="AB92" s="1" t="s">
+      <c r="AB92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AC92" s="1" t="s">
+      <c r="AD92" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AD92" s="1" t="s">
+      <c r="AE92" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AE92" s="1" t="s">
+      <c r="AF92" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>10558</v>
       </c>
@@ -10663,31 +10945,34 @@
         <v>53</v>
       </c>
       <c r="X93" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y93" s="1">
         <v>20</v>
       </c>
-      <c r="Y93" s="1">
-        <v>0</v>
-      </c>
       <c r="Z93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="1">
         <v>10</v>
       </c>
-      <c r="AA93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="1" t="s">
+      <c r="AB93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC93" s="1" t="s">
+      <c r="AD93" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD93" s="1" t="s">
+      <c r="AE93" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE93" s="1" t="s">
+      <c r="AF93" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>10558</v>
       </c>
@@ -10758,31 +11043,34 @@
         <v>7</v>
       </c>
       <c r="X94" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y94" s="1">
         <v>38</v>
       </c>
-      <c r="Y94" s="1">
-        <v>0</v>
-      </c>
       <c r="Z94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="1">
         <v>25</v>
       </c>
-      <c r="AA94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="1" t="s">
+      <c r="AB94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC94" s="1" t="s">
+      <c r="AD94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD94" s="1" t="s">
+      <c r="AE94" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE94" s="1" t="s">
+      <c r="AF94" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>10558</v>
       </c>
@@ -10853,7 +11141,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="X95" s="1">
-        <v>0</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Y95" s="1">
         <v>0</v>
@@ -10862,22 +11150,25 @@
         <v>0</v>
       </c>
       <c r="AA95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="1">
         <v>1</v>
       </c>
-      <c r="AB95" s="1" t="s">
+      <c r="AC95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AC95" s="1" t="s">
+      <c r="AD95" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD95" s="1" t="s">
+      <c r="AE95" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE95" s="1" t="s">
+      <c r="AF95" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>10558</v>
       </c>
@@ -10948,31 +11239,34 @@
         <v>15</v>
       </c>
       <c r="X96" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y96" s="1">
         <v>101</v>
       </c>
-      <c r="Y96" s="1">
-        <v>0</v>
-      </c>
       <c r="Z96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="1">
         <v>5</v>
       </c>
-      <c r="AA96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="1" t="s">
+      <c r="AB96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC96" s="1" t="s">
+      <c r="AD96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD96" s="1" t="s">
+      <c r="AE96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE96" s="1" t="s">
+      <c r="AF96" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>10596</v>
       </c>
@@ -11043,31 +11337,34 @@
         <v>38</v>
       </c>
       <c r="X97" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y97" s="1">
         <v>21</v>
       </c>
-      <c r="Y97" s="1">
+      <c r="Z97" s="1">
         <v>10</v>
       </c>
-      <c r="Z97" s="1">
-        <v>30</v>
-      </c>
       <c r="AA97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC97" s="1" t="s">
+      <c r="AD97" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD97" s="1" t="s">
+      <c r="AE97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE97" s="1" t="s">
+      <c r="AF97" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>10596</v>
       </c>
@@ -11138,31 +11435,34 @@
         <v>43.9</v>
       </c>
       <c r="X98" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="Y98" s="1">
         <v>24</v>
       </c>
-      <c r="Y98" s="1">
-        <v>0</v>
-      </c>
       <c r="Z98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="1">
         <v>5</v>
       </c>
-      <c r="AA98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="1" t="s">
+      <c r="AB98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="AC98" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="AD98" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AE98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF98" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>10596</v>
       </c>
@@ -11233,31 +11533,34 @@
         <v>7.75</v>
       </c>
       <c r="X99" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="Y99" s="1">
         <v>125</v>
       </c>
-      <c r="Y99" s="1">
-        <v>0</v>
-      </c>
       <c r="Z99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="1">
         <v>25</v>
       </c>
-      <c r="AA99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="1" t="s">
+      <c r="AB99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC99" s="1" t="s">
+      <c r="AD99" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AD99" s="1" t="s">
+      <c r="AE99" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE99" s="1" t="s">
+      <c r="AF99" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>10620</v>
       </c>
@@ -11328,31 +11631,34 @@
         <v>4.5</v>
       </c>
       <c r="X100" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="Y100" s="1">
         <v>20</v>
       </c>
-      <c r="Y100" s="1">
-        <v>0</v>
-      </c>
       <c r="Z100" s="1">
         <v>0</v>
       </c>
       <c r="AA100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="1">
         <v>1</v>
       </c>
-      <c r="AB100" s="1" t="s">
+      <c r="AC100" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC100" s="1" t="s">
+      <c r="AD100" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD100" s="1" t="s">
+      <c r="AE100" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE100" s="1" t="s">
+      <c r="AF100" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>10620</v>
       </c>
@@ -11423,31 +11729,34 @@
         <v>7</v>
       </c>
       <c r="X101" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y101" s="1">
         <v>38</v>
       </c>
-      <c r="Y101" s="1">
-        <v>0</v>
-      </c>
       <c r="Z101" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="1">
         <v>25</v>
       </c>
-      <c r="AA101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="1" t="s">
+      <c r="AB101" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC101" s="1" t="s">
+      <c r="AD101" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD101" s="1" t="s">
+      <c r="AE101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE101" s="1" t="s">
+      <c r="AF101" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>10621</v>
       </c>
@@ -11518,31 +11827,34 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="X102" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Y102" s="1">
         <v>25</v>
       </c>
-      <c r="Y102" s="1">
-        <v>0</v>
-      </c>
       <c r="Z102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="1">
         <v>5</v>
       </c>
-      <c r="AA102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="1" t="s">
+      <c r="AB102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AC102" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AE102" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF102" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>10624</v>
       </c>
@@ -11613,31 +11925,34 @@
         <v>45.6</v>
       </c>
       <c r="X103" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="Y103" s="1">
         <v>26</v>
       </c>
-      <c r="Y103" s="1">
-        <v>0</v>
-      </c>
       <c r="Z103" s="1">
         <v>0</v>
       </c>
       <c r="AA103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="1">
         <v>1</v>
       </c>
-      <c r="AB103" s="1" t="s">
+      <c r="AC103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC103" s="1" t="s">
+      <c r="AD103" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AD103" s="1" t="s">
+      <c r="AE103" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE103" s="1" t="s">
+      <c r="AF103" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>10624</v>
       </c>
@@ -11708,7 +12023,7 @@
         <v>123.79</v>
       </c>
       <c r="X104" s="1">
-        <v>0</v>
+        <v>123.79</v>
       </c>
       <c r="Y104" s="1">
         <v>0</v>
@@ -11717,22 +12032,25 @@
         <v>0</v>
       </c>
       <c r="AA104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="1">
         <v>1</v>
       </c>
-      <c r="AB104" s="1" t="s">
+      <c r="AC104" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AC104" s="1" t="s">
+      <c r="AD104" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AD104" s="1" t="s">
+      <c r="AE104" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE104" s="1" t="s">
+      <c r="AF104" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>10624</v>
       </c>
@@ -11803,31 +12121,34 @@
         <v>19.45</v>
       </c>
       <c r="X105" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="Y105" s="1">
         <v>27</v>
       </c>
-      <c r="Y105" s="1">
-        <v>0</v>
-      </c>
       <c r="Z105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="1">
         <v>15</v>
       </c>
-      <c r="AA105" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB105" s="1" t="s">
+      <c r="AB105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC105" s="1" t="s">
+      <c r="AD105" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AD105" s="1" t="s">
+      <c r="AE105" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AE105" s="1" t="s">
+      <c r="AF105" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>10625</v>
       </c>
@@ -11898,31 +12219,34 @@
         <v>23.25</v>
       </c>
       <c r="X106" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="Y106" s="1">
         <v>35</v>
       </c>
-      <c r="Y106" s="1">
-        <v>0</v>
-      </c>
       <c r="Z106" s="1">
         <v>0</v>
       </c>
       <c r="AA106" s="1">
         <v>0</v>
       </c>
-      <c r="AB106" s="1" t="s">
+      <c r="AB106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC106" s="1" t="s">
+      <c r="AD106" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AD106" s="1" t="s">
+      <c r="AE106" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE106" s="1" t="s">
+      <c r="AF106" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>10625</v>
       </c>
@@ -11993,31 +12317,34 @@
         <v>14</v>
       </c>
       <c r="X107" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y107" s="1">
         <v>26</v>
       </c>
-      <c r="Y107" s="1">
-        <v>0</v>
-      </c>
       <c r="Z107" s="1">
         <v>0</v>
       </c>
       <c r="AA107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="1">
         <v>1</v>
       </c>
-      <c r="AB107" s="1" t="s">
+      <c r="AC107" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC107" s="1" t="s">
+      <c r="AD107" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AD107" s="1" t="s">
+      <c r="AE107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AE107" s="1" t="s">
+      <c r="AF107" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>10625</v>
       </c>
@@ -12088,32 +12415,35 @@
         <v>34</v>
       </c>
       <c r="X108" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y108" s="1">
         <v>19</v>
       </c>
-      <c r="Y108" s="1">
-        <v>0</v>
-      </c>
       <c r="Z108" s="1">
         <v>0</v>
       </c>
       <c r="AA108" s="1">
         <v>0</v>
       </c>
-      <c r="AB108" s="1" t="s">
+      <c r="AB108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC108" s="1" t="s">
+      <c r="AD108" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AD108" s="1" t="s">
+      <c r="AE108" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE108" s="1" t="s">
+      <c r="AF108" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AF108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pakaasa.xlsx
+++ b/Pakaasa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\paakasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8CA9BF-63A6-4995-B284-5F2D2F9B343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F56A2-EB59-4EDA-A0C7-82EFC65FE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1403,12 +1403,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1768,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" topLeftCell="R28" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6219,101 +6225,101 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>10406</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>7</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>35612</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>35681</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="4">
         <v>35705</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3">
         <v>1</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <v>108.04</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <v>1</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="3">
         <v>14.4</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="3">
         <v>10</v>
       </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="R46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S46" s="1" t="s">
+      <c r="R46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46" s="3">
+        <v>21</v>
+      </c>
+      <c r="U46" s="3">
         <v>1</v>
       </c>
-      <c r="U46" s="1">
-        <v>1</v>
-      </c>
-      <c r="V46" s="1" t="s">
+      <c r="V46" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46" s="3">
         <v>18</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="3">
         <v>18</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="3">
         <v>39</v>
       </c>
-      <c r="Z46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="1">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>10</v>
       </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AD46" s="1" t="s">
+      <c r="AD46" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AE46" s="1" t="s">
+      <c r="AE46" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AF46" s="1" t="s">
+      <c r="AF46" s="3" t="s">
         <v>130</v>
       </c>
     </row>

--- a/Pakaasa.xlsx
+++ b/Pakaasa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\paakasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F56A2-EB59-4EDA-A0C7-82EFC65FE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5604DA-0B54-4E08-ABB0-35A9A27C243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="pakaasa" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pakaasa!$A$1:$AF$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pakaasa!$A$1:$AF$95</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="293">
   <si>
     <t>orderID</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Produce</t>
   </si>
   <si>
-    <t>Mayumi's</t>
-  </si>
-  <si>
     <t>Mayumi Ohno</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>5 kg pkg.</t>
   </si>
   <si>
-    <t>Gai patura</t>
-  </si>
-  <si>
     <t>Eliane Noz</t>
   </si>
   <si>
@@ -623,15 +617,6 @@
   </si>
   <si>
     <t>Robert</t>
-  </si>
-  <si>
-    <t>Chai</t>
-  </si>
-  <si>
-    <t>10 boxes x 20 bags</t>
-  </si>
-  <si>
-    <t>Charlotte Cooper</t>
   </si>
   <si>
     <t>Sir Rodney's Scones</t>
@@ -1403,18 +1388,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1772,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R28" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,13 +1841,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>15</v>
@@ -1883,10 +1862,10 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -1904,13 +1883,13 @@
         <v>23</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -2100,13 +2079,13 @@
         <v>42</v>
       </c>
       <c r="AD3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -2165,7 +2144,7 @@
         <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" s="1">
         <v>24</v>
@@ -2174,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W4" s="1">
         <v>53</v>
@@ -2198,13 +2177,13 @@
         <v>42</v>
       </c>
       <c r="AD4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -2212,7 +2191,7 @@
         <v>10250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2245,25 +2224,25 @@
         <v>0.15</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="R5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" s="1">
         <v>24</v>
@@ -2272,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W5" s="1">
         <v>53</v>
@@ -2296,13 +2275,13 @@
         <v>42</v>
       </c>
       <c r="AD5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -2310,7 +2289,7 @@
         <v>10255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
@@ -2343,25 +2322,25 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="T6" s="1">
         <v>28</v>
@@ -2370,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" s="1">
         <v>55</v>
@@ -2394,10 +2373,10 @@
         <v>33</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>30</v>
@@ -2408,7 +2387,7 @@
         <v>10250</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -2441,25 +2420,25 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="R7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T7" s="1">
         <v>19</v>
@@ -2468,7 +2447,7 @@
         <v>8</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="W7" s="1">
         <v>9.65</v>
@@ -2489,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -2506,7 +2485,7 @@
         <v>10255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -2539,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="R8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" s="1">
         <v>7</v>
@@ -2566,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W8" s="1">
         <v>17.45</v>
@@ -2587,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -2604,7 +2583,7 @@
         <v>10253</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2637,25 +2616,25 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="T9" s="1">
         <v>14</v>
@@ -2664,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W9" s="1">
         <v>12.5</v>
@@ -2753,7 +2732,7 @@
         <v>30</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T10" s="1">
         <v>14</v>
@@ -2762,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W10" s="1">
         <v>12.5</v>
@@ -2800,7 +2779,7 @@
         <v>10253</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -2833,25 +2812,25 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T11" s="1">
         <v>23</v>
@@ -2860,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W11" s="1">
         <v>20</v>
@@ -2881,16 +2860,16 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF11" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -2949,7 +2928,7 @@
         <v>30</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T12" s="1">
         <v>8</v>
@@ -2958,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W12" s="1">
         <v>81</v>
@@ -2979,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2996,7 +2975,7 @@
         <v>10255</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>9</v>
@@ -3029,25 +3008,25 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="R13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T13" s="1">
         <v>17</v>
@@ -3056,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W13" s="1">
         <v>19</v>
@@ -3077,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>30</v>
@@ -3094,7 +3073,7 @@
         <v>10273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -3127,25 +3106,25 @@
         <v>0.05</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="T14" s="1">
         <v>4</v>
@@ -3154,7 +3133,7 @@
         <v>8</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W14" s="1">
         <v>31</v>
@@ -3175,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>39</v>
@@ -3192,7 +3171,7 @@
         <v>10273</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -3225,25 +3204,25 @@
         <v>0.05</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="T15" s="1">
         <v>14</v>
@@ -3252,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W15" s="1">
         <v>12.5</v>
@@ -3290,7 +3269,7 @@
         <v>10273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -3323,25 +3302,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T16" s="1">
         <v>15</v>
@@ -3350,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W16" s="1">
         <v>2.5</v>
@@ -3374,10 +3353,10 @@
         <v>33</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>39</v>
@@ -3388,7 +3367,7 @@
         <v>10273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -3421,25 +3400,25 @@
         <v>0.05</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T17" s="1">
         <v>19</v>
@@ -3448,7 +3427,7 @@
         <v>8</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W17" s="1">
         <v>18.399999999999999</v>
@@ -3469,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -3486,7 +3465,7 @@
         <v>10273</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -3519,25 +3498,25 @@
         <v>0.05</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T18" s="1">
         <v>23</v>
@@ -3546,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W18" s="1">
         <v>18</v>
@@ -3567,16 +3546,16 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -3584,7 +3563,7 @@
         <v>10276</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
@@ -3617,25 +3596,25 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T19" s="1">
         <v>4</v>
@@ -3644,7 +3623,7 @@
         <v>8</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W19" s="1">
         <v>31</v>
@@ -3665,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>39</v>
@@ -3682,7 +3661,7 @@
         <v>10276</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
@@ -3715,25 +3694,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="T20" s="1">
         <v>6</v>
@@ -3742,7 +3721,7 @@
         <v>8</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W20" s="1">
         <v>6</v>
@@ -3763,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -3780,7 +3759,7 @@
         <v>10293</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -3813,25 +3792,25 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="P21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="T21" s="1">
         <v>7</v>
@@ -3840,7 +3819,7 @@
         <v>8</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W21" s="1">
         <v>62.5</v>
@@ -3861,16 +3840,16 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -3878,7 +3857,7 @@
         <v>10298</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
@@ -3911,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>28</v>
@@ -3929,7 +3908,7 @@
         <v>30</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
@@ -3938,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W22" s="1">
         <v>19</v>
@@ -3959,16 +3938,16 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF22" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -3976,7 +3955,7 @@
         <v>10298</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
@@ -4009,13 +3988,13 @@
         <v>0.25</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>28</v>
@@ -4027,7 +4006,7 @@
         <v>30</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T23" s="1">
         <v>17</v>
@@ -4036,7 +4015,7 @@
         <v>8</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W23" s="1">
         <v>19</v>
@@ -4057,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>30</v>
@@ -4074,7 +4053,7 @@
         <v>10304</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4107,25 +4086,25 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="P24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T24" s="1">
         <v>23</v>
@@ -4134,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W24" s="1">
         <v>20</v>
@@ -4155,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF24" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -4172,7 +4151,7 @@
         <v>10304</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -4205,25 +4184,25 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="P25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T25" s="1">
         <v>28</v>
@@ -4232,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W25" s="1">
         <v>55</v>
@@ -4256,10 +4235,10 @@
         <v>33</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>30</v>
@@ -4270,7 +4249,7 @@
         <v>10304</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -4303,25 +4282,25 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="P26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T26" s="1">
         <v>15</v>
@@ -4330,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W26" s="1">
         <v>21.5</v>
@@ -4354,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>39</v>
@@ -4368,7 +4347,7 @@
         <v>10321</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -4401,25 +4380,25 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T27" s="1">
         <v>16</v>
@@ -4428,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W27" s="1">
         <v>18</v>
@@ -4449,16 +4428,16 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF27" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -4508,16 +4487,16 @@
         <v>27</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T28" s="1">
         <v>26</v>
@@ -4526,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W28" s="1">
         <v>38</v>
@@ -4547,16 +4526,16 @@
         <v>0</v>
       </c>
       <c r="AC28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AF28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -4564,7 +4543,7 @@
         <v>10372</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -4597,25 +4576,25 @@
         <v>0.25</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="R29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T29" s="1">
         <v>8</v>
@@ -4624,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W29" s="1">
         <v>81</v>
@@ -4645,16 +4624,16 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -4662,7 +4641,7 @@
         <v>10372</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -4695,25 +4674,25 @@
         <v>0.25</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="R30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="T30" s="1">
         <v>18</v>
@@ -4722,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W30" s="1">
         <v>263.5</v>
@@ -4743,16 +4722,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -4760,7 +4739,7 @@
         <v>10372</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -4793,25 +4772,25 @@
         <v>0.25</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T31" s="1">
         <v>28</v>
@@ -4820,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W31" s="1">
         <v>34</v>
@@ -4844,10 +4823,10 @@
         <v>33</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>30</v>
@@ -4858,7 +4837,7 @@
         <v>10372</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
@@ -4891,22 +4870,22 @@
         <v>0.25</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="R32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>31</v>
@@ -4956,7 +4935,7 @@
         <v>10373</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -4989,25 +4968,25 @@
         <v>0.2</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="P33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="R33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T33" s="1">
         <v>27</v>
@@ -5016,7 +4995,7 @@
         <v>8</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W33" s="1">
         <v>13.25</v>
@@ -5037,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -5054,7 +5033,7 @@
         <v>10373</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
@@ -5087,25 +5066,25 @@
         <v>0.2</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="P34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="R34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T34" s="1">
         <v>15</v>
@@ -5114,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W34" s="1">
         <v>21.5</v>
@@ -5138,10 +5117,10 @@
         <v>33</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>39</v>
@@ -5152,7 +5131,7 @@
         <v>10375</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -5185,19 +5164,19 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>30</v>
@@ -5236,13 +5215,13 @@
         <v>42</v>
       </c>
       <c r="AD35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE35" s="1" t="s">
+      <c r="AF35" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AF35" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -5250,7 +5229,7 @@
         <v>10377</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5283,25 +5262,25 @@
         <v>0.15</v>
       </c>
       <c r="M36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="T36" s="1">
         <v>12</v>
@@ -5310,7 +5289,7 @@
         <v>7</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W36" s="1">
         <v>45.6</v>
@@ -5334,13 +5313,13 @@
         <v>42</v>
       </c>
       <c r="AD36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF36" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -5348,7 +5327,7 @@
         <v>10377</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -5381,25 +5360,25 @@
         <v>0.15</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T37" s="1">
         <v>18</v>
@@ -5408,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W37" s="1">
         <v>18</v>
@@ -5429,16 +5408,16 @@
         <v>0</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -5446,7 +5425,7 @@
         <v>10380</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1">
         <v>8</v>
@@ -5479,25 +5458,25 @@
         <v>0.1</v>
       </c>
       <c r="M38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="P38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S38" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T38" s="1">
         <v>13</v>
@@ -5506,7 +5485,7 @@
         <v>8</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W38" s="1">
         <v>25.89</v>
@@ -5527,16 +5506,16 @@
         <v>0</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -5544,7 +5523,7 @@
         <v>10380</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1">
         <v>8</v>
@@ -5577,25 +5556,25 @@
         <v>0.1</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="P39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S39" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T39" s="1">
         <v>24</v>
@@ -5604,7 +5583,7 @@
         <v>6</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W39" s="1">
         <v>32.799999999999997</v>
@@ -5625,16 +5604,16 @@
         <v>1</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AD39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE39" s="1" t="s">
+      <c r="AF39" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AF39" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -5642,7 +5621,7 @@
         <v>10395</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -5675,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>30</v>
@@ -5693,7 +5672,7 @@
         <v>30</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T40" s="1">
         <v>15</v>
@@ -5702,7 +5681,7 @@
         <v>4</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W40" s="1">
         <v>36</v>
@@ -5726,10 +5705,10 @@
         <v>33</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>39</v>
@@ -5740,7 +5719,7 @@
         <v>10400</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -5773,25 +5752,25 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="P41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T41" s="1">
         <v>16</v>
@@ -5800,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W41" s="1">
         <v>18</v>
@@ -5821,16 +5800,16 @@
         <v>0</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF41" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF41" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -5880,16 +5859,16 @@
         <v>27</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T42" s="1">
         <v>13</v>
@@ -5898,7 +5877,7 @@
         <v>8</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W42" s="1">
         <v>25.89</v>
@@ -5919,16 +5898,16 @@
         <v>0</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -5978,16 +5957,16 @@
         <v>27</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T43" s="1">
         <v>26</v>
@@ -5996,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W43" s="1">
         <v>38</v>
@@ -6017,16 +5996,16 @@
         <v>0</v>
       </c>
       <c r="AC43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AF43" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -6076,16 +6055,16 @@
         <v>27</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T44" s="1">
         <v>2</v>
@@ -6094,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W44" s="1">
         <v>21.05</v>
@@ -6115,16 +6094,16 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AD44" s="1" t="s">
+      <c r="AF44" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF44" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -6174,16 +6153,16 @@
         <v>27</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T45" s="1">
         <v>15</v>
@@ -6192,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W45" s="1">
         <v>21.5</v>
@@ -6216,111 +6195,111 @@
         <v>33</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>10406</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2">
+        <v>35612</v>
+      </c>
+      <c r="E46" s="2">
+        <v>35682</v>
+      </c>
+      <c r="F46" s="2">
+        <v>35706</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>108.04</v>
+      </c>
+      <c r="I46" s="1">
+        <v>21</v>
+      </c>
+      <c r="J46" s="1">
+        <v>8</v>
+      </c>
+      <c r="K46" s="1">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="3">
-        <v>7</v>
-      </c>
-      <c r="D46" s="4">
-        <v>35612</v>
-      </c>
-      <c r="E46" s="4">
-        <v>35681</v>
-      </c>
-      <c r="F46" s="4">
-        <v>35705</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>108.04</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="O46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T46" s="1">
+        <v>8</v>
+      </c>
+      <c r="U46" s="1">
+        <v>3</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W46" s="1">
         <v>10</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>21</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="W46" s="3">
-        <v>18</v>
-      </c>
-      <c r="X46" s="3">
-        <v>18</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>39</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="X46" s="1">
         <v>10</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE46" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF46" s="3" t="s">
-        <v>130</v>
+      <c r="Y46" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -6328,7 +6307,7 @@
         <v>10406</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="1">
         <v>7</v>
@@ -6337,10 +6316,10 @@
         <v>35612</v>
       </c>
       <c r="E47" s="2">
-        <v>35682</v>
+        <v>35683</v>
       </c>
       <c r="F47" s="2">
-        <v>35706</v>
+        <v>35707</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -6349,76 +6328,76 @@
         <v>108.04</v>
       </c>
       <c r="I47" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J47" s="1">
-        <v>8</v>
+        <v>36.4</v>
       </c>
       <c r="K47" s="1">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L47" s="1">
         <v>0.1</v>
       </c>
       <c r="M47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="P47" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="T47" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U47" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="W47" s="1">
-        <v>10</v>
+        <v>45.6</v>
       </c>
       <c r="X47" s="1">
-        <v>10</v>
+        <v>45.6</v>
       </c>
       <c r="Y47" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Z47" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -6426,7 +6405,7 @@
         <v>10406</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
@@ -6435,10 +6414,10 @@
         <v>35612</v>
       </c>
       <c r="E48" s="2">
-        <v>35683</v>
+        <v>35684</v>
       </c>
       <c r="F48" s="2">
-        <v>35707</v>
+        <v>35708</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -6447,76 +6426,76 @@
         <v>108.04</v>
       </c>
       <c r="I48" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J48" s="1">
-        <v>36.4</v>
+        <v>15.2</v>
       </c>
       <c r="K48" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L48" s="1">
         <v>0.1</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="P48" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="T48" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U48" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="W48" s="1">
-        <v>45.6</v>
+        <v>19</v>
       </c>
       <c r="X48" s="1">
-        <v>45.6</v>
+        <v>19</v>
       </c>
       <c r="Y48" s="1">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
       </c>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -6524,7 +6503,7 @@
         <v>10406</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -6533,10 +6512,10 @@
         <v>35612</v>
       </c>
       <c r="E49" s="2">
-        <v>35684</v>
+        <v>35685</v>
       </c>
       <c r="F49" s="2">
-        <v>35708</v>
+        <v>35709</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -6545,185 +6524,185 @@
         <v>108.04</v>
       </c>
       <c r="I49" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J49" s="1">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="K49" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L49" s="1">
         <v>0.1</v>
       </c>
       <c r="M49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="P49" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="T49" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U49" s="1">
         <v>8</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="W49" s="1">
-        <v>19</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="X49" s="1">
-        <v>19</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Y49" s="1">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
       </c>
       <c r="AA49" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB49" s="1">
         <v>0</v>
       </c>
       <c r="AC49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE49" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="AF49" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>10406</v>
+        <v>10410</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="E50" s="2">
-        <v>35685</v>
+        <v>35613</v>
       </c>
       <c r="F50" s="2">
-        <v>35709</v>
+        <v>35710</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" s="1">
-        <v>108.04</v>
+        <v>2.4</v>
       </c>
       <c r="I50" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J50" s="1">
-        <v>14.7</v>
+        <v>2</v>
       </c>
       <c r="K50" s="1">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="L50" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="T50" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U50" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W50" s="1">
-        <v>18.399999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="X50" s="1">
-        <v>18.399999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="Y50" s="1">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
       </c>
       <c r="AA50" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB50" s="1">
         <v>0</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>10410</v>
+        <v>10411</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2">
         <v>35704</v>
@@ -6732,85 +6711,85 @@
         <v>35613</v>
       </c>
       <c r="F51" s="2">
-        <v>35710</v>
+        <v>35711</v>
       </c>
       <c r="G51" s="1">
         <v>3</v>
       </c>
       <c r="H51" s="1">
-        <v>2.4</v>
+        <v>23.65</v>
       </c>
       <c r="I51" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J51" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>40</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T51" s="1">
+        <v>20</v>
+      </c>
+      <c r="U51" s="1">
         <v>2</v>
       </c>
-      <c r="K51" s="1">
-        <v>49</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1" t="s">
+      <c r="V51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W51" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="X51" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE51" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T51" s="1">
-        <v>15</v>
-      </c>
-      <c r="U51" s="1">
-        <v>4</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="W51" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="X51" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>112</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE51" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AF51" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
@@ -6818,7 +6797,7 @@
         <v>10411</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C52" s="1">
         <v>9</v>
@@ -6830,7 +6809,7 @@
         <v>35613</v>
       </c>
       <c r="F52" s="2">
-        <v>35711</v>
+        <v>35712</v>
       </c>
       <c r="G52" s="1">
         <v>3</v>
@@ -6839,174 +6818,174 @@
         <v>23.65</v>
       </c>
       <c r="I52" s="1">
+        <v>59</v>
+      </c>
+      <c r="J52" s="1">
         <v>44</v>
       </c>
-      <c r="J52" s="1">
-        <v>15.5</v>
-      </c>
       <c r="K52" s="1">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="L52" s="1">
         <v>0.2</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="R52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="T52" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="U52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="W52" s="1">
-        <v>19.45</v>
+        <v>55</v>
       </c>
       <c r="X52" s="1">
-        <v>19.45</v>
+        <v>55</v>
       </c>
       <c r="Y52" s="1">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
       </c>
       <c r="AA52" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="1">
         <v>0</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>10411</v>
+        <v>10435</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C53" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2">
-        <v>35704</v>
+        <v>35522</v>
       </c>
       <c r="E53" s="2">
+        <v>35614</v>
+      </c>
+      <c r="F53" s="2">
         <v>35613</v>
       </c>
-      <c r="F53" s="2">
-        <v>35712</v>
-      </c>
       <c r="G53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1">
-        <v>23.65</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="I53" s="1">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="J53" s="1">
-        <v>44</v>
+        <v>15.2</v>
       </c>
       <c r="K53" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L53" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="T53" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="U53" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="W53" s="1">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="X53" s="1">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="Y53" s="1">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="Z53" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA53" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB53" s="1">
         <v>0</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -7014,7 +6993,7 @@
         <v>10435</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
@@ -7023,7 +7002,7 @@
         <v>35522</v>
       </c>
       <c r="E54" s="2">
-        <v>35614</v>
+        <v>35615</v>
       </c>
       <c r="F54" s="2">
         <v>35613</v>
@@ -7035,10 +7014,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="I54" s="1">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="J54" s="1">
-        <v>15.2</v>
+        <v>27.8</v>
       </c>
       <c r="K54" s="1">
         <v>10</v>
@@ -7047,162 +7026,162 @@
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S54" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="T54" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U54" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="W54" s="1">
-        <v>19</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="X54" s="1">
-        <v>19</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Y54" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z54" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="1">
         <v>0</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="AF54" s="1" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>10435</v>
+        <v>10438</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D55" s="2">
-        <v>35522</v>
+        <v>35583</v>
       </c>
       <c r="E55" s="2">
-        <v>35615</v>
+        <v>35584</v>
       </c>
       <c r="F55" s="2">
-        <v>35613</v>
+        <v>35614</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
       </c>
       <c r="H55" s="1">
-        <v>9.2100000000000009</v>
+        <v>8.24</v>
       </c>
       <c r="I55" s="1">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="J55" s="1">
-        <v>27.8</v>
+        <v>7.3</v>
       </c>
       <c r="K55" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="T55" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="U55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="W55" s="1">
-        <v>34.799999999999997</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="X55" s="1">
-        <v>34.799999999999997</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Y55" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z55" s="1">
         <v>0</v>
       </c>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB55" s="1">
         <v>0</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="AF55" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
@@ -7222,7 +7201,7 @@
         <v>35584</v>
       </c>
       <c r="F56" s="2">
-        <v>35614</v>
+        <v>35615</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -7231,13 +7210,13 @@
         <v>8.24</v>
       </c>
       <c r="I56" s="1">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J56" s="1">
-        <v>7.3</v>
+        <v>11.2</v>
       </c>
       <c r="K56" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L56" s="1">
         <v>0.2</v>
@@ -7252,55 +7231,55 @@
         <v>39</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T56" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="W56" s="1">
-        <v>9.1999999999999993</v>
+        <v>14</v>
       </c>
       <c r="X56" s="1">
-        <v>9.1999999999999993</v>
+        <v>14</v>
       </c>
       <c r="Y56" s="1">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="Z56" s="1">
         <v>0</v>
       </c>
       <c r="AA56" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB56" s="1">
         <v>0</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -7320,7 +7299,7 @@
         <v>35584</v>
       </c>
       <c r="F57" s="2">
-        <v>35615</v>
+        <v>35616</v>
       </c>
       <c r="G57" s="1">
         <v>2</v>
@@ -7329,13 +7308,13 @@
         <v>8.24</v>
       </c>
       <c r="I57" s="1">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J57" s="1">
-        <v>11.2</v>
+        <v>15.6</v>
       </c>
       <c r="K57" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L57" s="1">
         <v>0.2</v>
@@ -7350,251 +7329,251 @@
         <v>39</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="T57" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="U57" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="W57" s="1">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="X57" s="1">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Y57" s="1">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="Z57" s="1">
         <v>0</v>
       </c>
       <c r="AA57" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB57" s="1">
         <v>0</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>10438</v>
+        <v>10441</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
       </c>
       <c r="D58" s="2">
-        <v>35583</v>
+        <v>35705</v>
       </c>
       <c r="E58" s="2">
-        <v>35584</v>
+        <v>35585</v>
       </c>
       <c r="F58" s="2">
-        <v>35616</v>
+        <v>35617</v>
       </c>
       <c r="G58" s="1">
         <v>2</v>
       </c>
       <c r="H58" s="1">
-        <v>8.24</v>
+        <v>73.02</v>
       </c>
       <c r="I58" s="1">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="J58" s="1">
-        <v>15.6</v>
+        <v>35.1</v>
       </c>
       <c r="K58" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L58" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T58" s="1">
+        <v>11</v>
+      </c>
+      <c r="U58" s="1">
+        <v>3</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T58" s="1">
-        <v>26</v>
-      </c>
-      <c r="U58" s="1">
-        <v>5</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="W58" s="1">
-        <v>19.5</v>
+        <v>43.9</v>
       </c>
       <c r="X58" s="1">
-        <v>19.5</v>
+        <v>43.9</v>
       </c>
       <c r="Y58" s="1">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Z58" s="1">
         <v>0</v>
       </c>
       <c r="AA58" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB58" s="1">
         <v>0</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>10441</v>
+        <v>10471</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>35737</v>
+      </c>
+      <c r="E59" s="2">
+        <v>35646</v>
+      </c>
+      <c r="F59" s="2">
+        <v>35621</v>
+      </c>
+      <c r="G59" s="1">
         <v>3</v>
       </c>
-      <c r="D59" s="2">
-        <v>35705</v>
-      </c>
-      <c r="E59" s="2">
-        <v>35585</v>
-      </c>
-      <c r="F59" s="2">
-        <v>35617</v>
-      </c>
-      <c r="G59" s="1">
-        <v>2</v>
-      </c>
       <c r="H59" s="1">
-        <v>73.02</v>
+        <v>45.59</v>
       </c>
       <c r="I59" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J59" s="1">
-        <v>35.1</v>
+        <v>24</v>
       </c>
       <c r="K59" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="T59" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U59" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="W59" s="1">
-        <v>43.9</v>
+        <v>30</v>
       </c>
       <c r="X59" s="1">
-        <v>43.9</v>
+        <v>30</v>
       </c>
       <c r="Y59" s="1">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="Z59" s="1">
         <v>0</v>
       </c>
       <c r="AA59" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB59" s="1">
         <v>0</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
@@ -7602,7 +7581,7 @@
         <v>10471</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -7614,7 +7593,7 @@
         <v>35646</v>
       </c>
       <c r="F60" s="2">
-        <v>35621</v>
+        <v>35622</v>
       </c>
       <c r="G60" s="1">
         <v>3</v>
@@ -7623,174 +7602,174 @@
         <v>45.59</v>
       </c>
       <c r="I60" s="1">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J60" s="1">
-        <v>24</v>
+        <v>30.4</v>
       </c>
       <c r="K60" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L60" s="1">
         <v>0</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="T60" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="U60" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="W60" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="X60" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Y60" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Z60" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA60" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AB60" s="1">
         <v>0</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>10471</v>
+        <v>10472</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2">
-        <v>35737</v>
+        <v>35767</v>
       </c>
       <c r="E61" s="2">
-        <v>35646</v>
+        <v>35677</v>
       </c>
       <c r="F61" s="2">
-        <v>35622</v>
+        <v>35623</v>
       </c>
       <c r="G61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
-        <v>45.59</v>
+        <v>4.2</v>
       </c>
       <c r="I61" s="1">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J61" s="1">
-        <v>30.4</v>
+        <v>3.6</v>
       </c>
       <c r="K61" s="1">
+        <v>80</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T61" s="1">
+        <v>10</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W61" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="X61" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="Y61" s="1">
         <v>20</v>
       </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R61" s="1" t="s">
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD61" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="S61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T61" s="1">
-        <v>26</v>
-      </c>
-      <c r="U61" s="1">
-        <v>5</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="W61" s="1">
-        <v>38</v>
-      </c>
-      <c r="X61" s="1">
-        <v>38</v>
-      </c>
-      <c r="Y61" s="1">
-        <v>21</v>
-      </c>
-      <c r="Z61" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA61" s="1">
-        <v>30</v>
-      </c>
-      <c r="AB61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD61" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="AE61" s="1" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
@@ -7798,7 +7777,7 @@
         <v>10472</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -7810,7 +7789,7 @@
         <v>35677</v>
       </c>
       <c r="F62" s="2">
-        <v>35623</v>
+        <v>35624</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -7819,52 +7798,52 @@
         <v>4.2</v>
       </c>
       <c r="I62" s="1">
+        <v>51</v>
+      </c>
+      <c r="J62" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="K62" s="1">
+        <v>18</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T62" s="1">
         <v>24</v>
       </c>
-      <c r="J62" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="K62" s="1">
-        <v>80</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="T62" s="1">
-        <v>10</v>
-      </c>
       <c r="U62" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="W62" s="1">
-        <v>4.5</v>
+        <v>53</v>
       </c>
       <c r="X62" s="1">
-        <v>4.5</v>
+        <v>53</v>
       </c>
       <c r="Y62" s="1">
         <v>20</v>
@@ -7873,120 +7852,120 @@
         <v>0</v>
       </c>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>10472</v>
+        <v>10495</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="C63" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>35767</v>
+        <v>35493</v>
       </c>
       <c r="E63" s="2">
-        <v>35677</v>
+        <v>35435</v>
       </c>
       <c r="F63" s="2">
-        <v>35624</v>
+        <v>35738</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" s="1">
-        <v>4.2</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I63" s="1">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J63" s="1">
-        <v>42.4</v>
+        <v>7.2</v>
       </c>
       <c r="K63" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="T63" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="U63" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="W63" s="1">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="X63" s="1">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="Y63" s="1">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="Z63" s="1">
         <v>0</v>
       </c>
       <c r="AA63" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB63" s="1">
         <v>0</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
@@ -7994,7 +7973,7 @@
         <v>10495</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -8015,76 +7994,76 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="I64" s="1">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J64" s="1">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="K64" s="1">
+        <v>20</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T64" s="1">
+        <v>19</v>
+      </c>
+      <c r="U64" s="1">
+        <v>8</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W64" s="1">
+        <v>9.65</v>
+      </c>
+      <c r="X64" s="1">
+        <v>9.65</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>85</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
         <v>10</v>
       </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T64" s="1">
-        <v>9</v>
-      </c>
-      <c r="U64" s="1">
-        <v>5</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="W64" s="1">
-        <v>9</v>
-      </c>
-      <c r="X64" s="1">
-        <v>9</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>61</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="1">
-        <v>25</v>
-      </c>
       <c r="AB64" s="1">
         <v>0</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="AF64" s="1" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
@@ -8092,7 +8071,7 @@
         <v>10495</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
@@ -8113,174 +8092,174 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="I65" s="1">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J65" s="1">
-        <v>7.7</v>
+        <v>10.4</v>
       </c>
       <c r="K65" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="T65" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U65" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="W65" s="1">
-        <v>9.65</v>
+        <v>13</v>
       </c>
       <c r="X65" s="1">
-        <v>9.65</v>
+        <v>13</v>
       </c>
       <c r="Y65" s="1">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Z65" s="1">
         <v>0</v>
       </c>
       <c r="AA65" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB65" s="1">
         <v>0</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="AF65" s="1" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>10495</v>
+        <v>10497</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C66" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2">
-        <v>35493</v>
+        <v>35524</v>
       </c>
       <c r="E66" s="2">
-        <v>35435</v>
+        <v>35466</v>
       </c>
       <c r="F66" s="2">
-        <v>35738</v>
+        <v>35615</v>
       </c>
       <c r="G66" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
-        <v>4.6500000000000004</v>
+        <v>36.21</v>
       </c>
       <c r="I66" s="1">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J66" s="1">
-        <v>10.4</v>
+        <v>30.4</v>
       </c>
       <c r="K66" s="1">
+        <v>14</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T66" s="1">
+        <v>26</v>
+      </c>
+      <c r="U66" s="1">
         <v>5</v>
       </c>
-      <c r="L66" s="1">
-        <v>0</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T66" s="1">
-        <v>12</v>
-      </c>
-      <c r="U66" s="1">
-        <v>2</v>
-      </c>
       <c r="V66" s="1" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="W66" s="1">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="X66" s="1">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Y66" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Z66" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA66" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB66" s="1">
         <v>0</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
@@ -8288,7 +8267,7 @@
         <v>10497</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C67" s="1">
         <v>7</v>
@@ -8309,76 +8288,76 @@
         <v>36.21</v>
       </c>
       <c r="I67" s="1">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J67" s="1">
-        <v>30.4</v>
+        <v>27.8</v>
       </c>
       <c r="K67" s="1">
+        <v>25</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" s="1">
         <v>14</v>
       </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T67" s="1">
-        <v>26</v>
-      </c>
       <c r="U67" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="W67" s="1">
-        <v>38</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="X67" s="1">
-        <v>38</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Y67" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z67" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="1">
         <v>0</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="AF67" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -8386,7 +8365,7 @@
         <v>10497</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -8407,10 +8386,10 @@
         <v>36.21</v>
       </c>
       <c r="I68" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J68" s="1">
-        <v>27.8</v>
+        <v>10.4</v>
       </c>
       <c r="K68" s="1">
         <v>25</v>
@@ -8419,162 +8398,162 @@
         <v>0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="T68" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U68" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W68" s="1">
+        <v>13</v>
+      </c>
+      <c r="X68" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y68" s="1">
         <v>32</v>
       </c>
-      <c r="W68" s="1">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="X68" s="1">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>14</v>
-      </c>
       <c r="Z68" s="1">
         <v>0</v>
       </c>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB68" s="1">
         <v>0</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>10497</v>
+        <v>10498</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="C69" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2">
-        <v>35524</v>
+        <v>35615</v>
       </c>
       <c r="E69" s="2">
-        <v>35466</v>
+        <v>35555</v>
       </c>
       <c r="F69" s="2">
-        <v>35615</v>
+        <v>35738</v>
       </c>
       <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>29.75</v>
+      </c>
+      <c r="I69" s="1">
+        <v>24</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K69" s="1">
+        <v>14</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T69" s="1">
+        <v>10</v>
+      </c>
+      <c r="U69" s="1">
         <v>1</v>
       </c>
-      <c r="H69" s="1">
-        <v>36.21</v>
-      </c>
-      <c r="I69" s="1">
-        <v>77</v>
-      </c>
-      <c r="J69" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="K69" s="1">
-        <v>25</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T69" s="1">
-        <v>12</v>
-      </c>
-      <c r="U69" s="1">
-        <v>2</v>
-      </c>
       <c r="V69" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="W69" s="1">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="X69" s="1">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Y69" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
       </c>
       <c r="AA69" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
@@ -8582,7 +8561,7 @@
         <v>10498</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70" s="1">
         <v>8</v>
@@ -8603,174 +8582,174 @@
         <v>29.75</v>
       </c>
       <c r="I70" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J70" s="1">
-        <v>4.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="K70" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S70" s="1" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="T70" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U70" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="W70" s="1">
-        <v>4.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="X70" s="1">
-        <v>4.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Y70" s="1">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="Z70" s="1">
         <v>0</v>
       </c>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>10498</v>
+        <v>10503</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C71" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2">
-        <v>35615</v>
+        <v>35738</v>
       </c>
       <c r="E71" s="2">
-        <v>35555</v>
+        <v>35678</v>
       </c>
       <c r="F71" s="2">
-        <v>35738</v>
+        <v>35536</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
       </c>
       <c r="H71" s="1">
-        <v>29.75</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="I71" s="1">
+        <v>14</v>
+      </c>
+      <c r="J71" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="K71" s="1">
+        <v>70</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J71" s="1">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="K71" s="1">
-        <v>5</v>
-      </c>
-      <c r="L71" s="1">
-        <v>0</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="T71" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="U71" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="W71" s="1">
-        <v>18.399999999999999</v>
+        <v>23.25</v>
       </c>
       <c r="X71" s="1">
-        <v>18.399999999999999</v>
+        <v>23.25</v>
       </c>
       <c r="Y71" s="1">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="Z71" s="1">
         <v>0</v>
       </c>
       <c r="AA71" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB71" s="1">
         <v>0</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
@@ -8778,7 +8757,7 @@
         <v>10503</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
@@ -8790,7 +8769,7 @@
         <v>35678</v>
       </c>
       <c r="F72" s="2">
-        <v>35536</v>
+        <v>35537</v>
       </c>
       <c r="G72" s="1">
         <v>2</v>
@@ -8799,25 +8778,25 @@
         <v>16.739999999999998</v>
       </c>
       <c r="I72" s="1">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="J72" s="1">
-        <v>23.25</v>
+        <v>21.05</v>
       </c>
       <c r="K72" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>28</v>
@@ -8829,25 +8808,25 @@
         <v>30</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="T72" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U72" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="W72" s="1">
-        <v>23.25</v>
+        <v>21.05</v>
       </c>
       <c r="X72" s="1">
-        <v>23.25</v>
+        <v>21.05</v>
       </c>
       <c r="Y72" s="1">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="Z72" s="1">
         <v>0</v>
@@ -8859,93 +8838,93 @@
         <v>0</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>10503</v>
+        <v>10523</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="2">
-        <v>35738</v>
+        <v>35435</v>
       </c>
       <c r="E73" s="2">
-        <v>35678</v>
+        <v>35679</v>
       </c>
       <c r="F73" s="2">
-        <v>35537</v>
+        <v>35542</v>
       </c>
       <c r="G73" s="1">
         <v>2</v>
       </c>
       <c r="H73" s="1">
-        <v>16.739999999999998</v>
+        <v>77.63</v>
       </c>
       <c r="I73" s="1">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="J73" s="1">
-        <v>21.05</v>
+        <v>39</v>
       </c>
       <c r="K73" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L73" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="T73" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U73" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="W73" s="1">
-        <v>21.05</v>
+        <v>39</v>
       </c>
       <c r="X73" s="1">
-        <v>21.05</v>
+        <v>39</v>
       </c>
       <c r="Y73" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="1">
         <v>0</v>
@@ -8954,81 +8933,81 @@
         <v>0</v>
       </c>
       <c r="AB73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="AF73" s="1" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>10523</v>
+        <v>10529</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C74" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" s="2">
-        <v>35435</v>
+        <v>35616</v>
       </c>
       <c r="E74" s="2">
-        <v>35679</v>
+        <v>35526</v>
       </c>
       <c r="F74" s="2">
-        <v>35542</v>
+        <v>35678</v>
       </c>
       <c r="G74" s="1">
         <v>2</v>
       </c>
       <c r="H74" s="1">
-        <v>77.63</v>
+        <v>66.69</v>
       </c>
       <c r="I74" s="1">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="J74" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K74" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L74" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>250</v>
       </c>
       <c r="T74" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="U74" s="1">
         <v>6</v>
@@ -9037,34 +9016,34 @@
         <v>251</v>
       </c>
       <c r="W74" s="1">
+        <v>24</v>
+      </c>
+      <c r="X74" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>115</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF74" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="X74" s="1">
-        <v>39</v>
-      </c>
-      <c r="Y74" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD74" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE74" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF74" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -9072,7 +9051,7 @@
         <v>10529</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
@@ -9093,76 +9072,76 @@
         <v>66.69</v>
       </c>
       <c r="I75" s="1">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J75" s="1">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="K75" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S75" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S75" s="1" t="s">
+      <c r="T75" s="1">
+        <v>8</v>
+      </c>
+      <c r="U75" s="1">
+        <v>3</v>
+      </c>
+      <c r="V75" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="T75" s="1">
-        <v>25</v>
-      </c>
-      <c r="U75" s="1">
+      <c r="W75" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="X75" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="Y75" s="1">
         <v>6</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="W75" s="1">
-        <v>24</v>
-      </c>
-      <c r="X75" s="1">
-        <v>24</v>
-      </c>
-      <c r="Y75" s="1">
-        <v>115</v>
-      </c>
       <c r="Z75" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA75" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB75" s="1">
         <v>0</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="AF75" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
@@ -9170,7 +9149,7 @@
         <v>10529</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C76" s="1">
         <v>5</v>
@@ -9191,58 +9170,58 @@
         <v>66.69</v>
       </c>
       <c r="I76" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J76" s="1">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="K76" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="T76" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U76" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="W76" s="1">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="X76" s="1">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="Y76" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="Z76" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="1">
         <v>15</v>
@@ -9251,93 +9230,93 @@
         <v>0</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>289</v>
+        <v>100</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>10529</v>
+        <v>10532</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="C77" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D77" s="2">
-        <v>35616</v>
+        <v>35678</v>
       </c>
       <c r="E77" s="2">
-        <v>35526</v>
+        <v>35587</v>
       </c>
       <c r="F77" s="2">
-        <v>35678</v>
+        <v>35769</v>
       </c>
       <c r="G77" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H77" s="1">
-        <v>66.69</v>
+        <v>74.459999999999994</v>
       </c>
       <c r="I77" s="1">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="J77" s="1">
-        <v>36</v>
+        <v>25.89</v>
       </c>
       <c r="K77" s="1">
+        <v>15</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T77" s="1">
+        <v>13</v>
+      </c>
+      <c r="U77" s="1">
+        <v>8</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W77" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="X77" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="Y77" s="1">
         <v>10</v>
-      </c>
-      <c r="L77" s="1">
-        <v>0</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="T77" s="1">
-        <v>15</v>
-      </c>
-      <c r="U77" s="1">
-        <v>4</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="W77" s="1">
-        <v>36</v>
-      </c>
-      <c r="X77" s="1">
-        <v>36</v>
-      </c>
-      <c r="Y77" s="1">
-        <v>26</v>
       </c>
       <c r="Z77" s="1">
         <v>0</v>
@@ -9349,16 +9328,16 @@
         <v>0</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -9366,7 +9345,7 @@
         <v>10532</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" s="1">
         <v>7</v>
@@ -9387,174 +9366,174 @@
         <v>74.459999999999994</v>
       </c>
       <c r="I78" s="1">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J78" s="1">
-        <v>25.89</v>
+        <v>17</v>
       </c>
       <c r="K78" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L78" s="1">
         <v>0</v>
       </c>
       <c r="M78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="P78" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="T78" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U78" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="W78" s="1">
-        <v>25.89</v>
+        <v>17</v>
       </c>
       <c r="X78" s="1">
-        <v>25.89</v>
+        <v>17</v>
       </c>
       <c r="Y78" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA78" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB78" s="1">
         <v>0</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>10532</v>
+        <v>10534</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="C79" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2">
-        <v>35678</v>
+        <v>35769</v>
       </c>
       <c r="E79" s="2">
-        <v>35587</v>
+        <v>35679</v>
       </c>
       <c r="F79" s="2">
-        <v>35769</v>
+        <v>35564</v>
       </c>
       <c r="G79" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" s="1">
-        <v>74.459999999999994</v>
+        <v>27.94</v>
       </c>
       <c r="I79" s="1">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J79" s="1">
-        <v>17</v>
+        <v>25.89</v>
       </c>
       <c r="K79" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="T79" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="W79" s="1">
-        <v>17</v>
+        <v>25.89</v>
       </c>
       <c r="X79" s="1">
-        <v>17</v>
+        <v>25.89</v>
       </c>
       <c r="Y79" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA79" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD79" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="AE79" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -9562,7 +9541,7 @@
         <v>10534</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C80" s="1">
         <v>8</v>
@@ -9583,76 +9562,76 @@
         <v>27.94</v>
       </c>
       <c r="I80" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J80" s="1">
-        <v>25.89</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="K80" s="1">
         <v>10</v>
       </c>
       <c r="L80" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R80" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q80" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S80" s="1" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="T80" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U80" s="1">
         <v>8</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="W80" s="1">
-        <v>25.89</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="X80" s="1">
-        <v>25.89</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Y80" s="1">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="Z80" s="1">
         <v>0</v>
       </c>
       <c r="AA80" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB80" s="1">
         <v>0</v>
       </c>
       <c r="AC80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE80" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="AF80" s="1" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
@@ -9660,7 +9639,7 @@
         <v>10534</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C81" s="1">
         <v>8</v>
@@ -9681,10 +9660,10 @@
         <v>27.94</v>
       </c>
       <c r="I81" s="1">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J81" s="1">
-        <v>18.399999999999999</v>
+        <v>7.45</v>
       </c>
       <c r="K81" s="1">
         <v>10</v>
@@ -9693,162 +9672,162 @@
         <v>0.2</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q81" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="S81" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="T81" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U81" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="W81" s="1">
-        <v>18.399999999999999</v>
+        <v>7.45</v>
       </c>
       <c r="X81" s="1">
-        <v>18.399999999999999</v>
+        <v>7.45</v>
       </c>
       <c r="Y81" s="1">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="Z81" s="1">
         <v>0</v>
       </c>
       <c r="AA81" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB81" s="1">
         <v>0</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>10534</v>
+        <v>10558</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C82" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2">
-        <v>35769</v>
+        <v>35526</v>
       </c>
       <c r="E82" s="2">
-        <v>35679</v>
+        <v>35468</v>
       </c>
       <c r="F82" s="2">
-        <v>35564</v>
+        <v>35709</v>
       </c>
       <c r="G82" s="1">
         <v>2</v>
       </c>
       <c r="H82" s="1">
-        <v>27.94</v>
+        <v>72.97</v>
       </c>
       <c r="I82" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J82" s="1">
-        <v>7.45</v>
+        <v>9.5</v>
       </c>
       <c r="K82" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L82" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>263</v>
       </c>
       <c r="T82" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U82" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>264</v>
       </c>
       <c r="W82" s="1">
-        <v>7.45</v>
+        <v>9.5</v>
       </c>
       <c r="X82" s="1">
-        <v>7.45</v>
+        <v>9.5</v>
       </c>
       <c r="Y82" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Z82" s="1">
         <v>0</v>
       </c>
       <c r="AA82" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="1">
         <v>0</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -9856,7 +9835,7 @@
         <v>10558</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -9877,76 +9856,76 @@
         <v>72.97</v>
       </c>
       <c r="I83" s="1">
+        <v>51</v>
+      </c>
+      <c r="J83" s="1">
+        <v>53</v>
+      </c>
+      <c r="K83" s="1">
+        <v>20</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T83" s="1">
+        <v>24</v>
+      </c>
+      <c r="U83" s="1">
+        <v>7</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W83" s="1">
+        <v>53</v>
+      </c>
+      <c r="X83" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD83" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J83" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="K83" s="1">
-        <v>25</v>
-      </c>
-      <c r="L83" s="1">
-        <v>0</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="T83" s="1">
-        <v>22</v>
-      </c>
-      <c r="U83" s="1">
-        <v>3</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="W83" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="X83" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="Y83" s="1">
-        <v>36</v>
-      </c>
-      <c r="Z83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD83" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="AE83" s="1" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -9954,7 +9933,7 @@
         <v>10558</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -9975,76 +9954,76 @@
         <v>72.97</v>
       </c>
       <c r="I84" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J84" s="1">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="K84" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N84" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S84" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="T84" s="1">
         <v>24</v>
       </c>
       <c r="U84" s="1">
+        <v>5</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W84" s="1">
         <v>7</v>
       </c>
-      <c r="V84" s="1" t="s">
+      <c r="X84" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD84" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W84" s="1">
-        <v>53</v>
-      </c>
-      <c r="X84" s="1">
-        <v>53</v>
-      </c>
-      <c r="Y84" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD84" s="1" t="s">
+      <c r="AE84" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE84" s="1" t="s">
+      <c r="AF84" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AF84" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
@@ -10052,7 +10031,7 @@
         <v>10558</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -10073,76 +10052,76 @@
         <v>72.97</v>
       </c>
       <c r="I85" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J85" s="1">
-        <v>7</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="K85" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="T85" s="1">
         <v>24</v>
       </c>
       <c r="U85" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="W85" s="1">
-        <v>7</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X85" s="1">
-        <v>7</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Y85" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="1">
         <v>0</v>
       </c>
       <c r="AA85" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="AD85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE85" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE85" s="1" t="s">
+      <c r="AF85" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AF85" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
@@ -10150,7 +10129,7 @@
         <v>10558</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -10171,174 +10150,174 @@
         <v>72.97</v>
       </c>
       <c r="I86" s="1">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J86" s="1">
-        <v>32.799999999999997</v>
+        <v>15</v>
       </c>
       <c r="K86" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L86" s="1">
         <v>0</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="T86" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="U86" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="W86" s="1">
-        <v>32.799999999999997</v>
+        <v>15</v>
       </c>
       <c r="X86" s="1">
-        <v>32.799999999999997</v>
+        <v>15</v>
       </c>
       <c r="Y86" s="1">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Z86" s="1">
         <v>0</v>
       </c>
       <c r="AA86" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>10558</v>
+        <v>10620</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>35558</v>
+      </c>
+      <c r="E87" s="2">
+        <v>35470</v>
+      </c>
+      <c r="F87" s="2">
+        <v>35656</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I87" s="1">
+        <v>24</v>
+      </c>
+      <c r="J87" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K87" s="1">
+        <v>5</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T87" s="1">
+        <v>10</v>
+      </c>
+      <c r="U87" s="1">
         <v>1</v>
       </c>
-      <c r="D87" s="2">
-        <v>35526</v>
-      </c>
-      <c r="E87" s="2">
-        <v>35468</v>
-      </c>
-      <c r="F87" s="2">
-        <v>35709</v>
-      </c>
-      <c r="G87" s="1">
-        <v>2</v>
-      </c>
-      <c r="H87" s="1">
-        <v>72.97</v>
-      </c>
-      <c r="I87" s="1">
-        <v>73</v>
-      </c>
-      <c r="J87" s="1">
-        <v>15</v>
-      </c>
-      <c r="K87" s="1">
-        <v>3</v>
-      </c>
-      <c r="L87" s="1">
-        <v>0</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T87" s="1">
-        <v>17</v>
-      </c>
-      <c r="U87" s="1">
-        <v>8</v>
-      </c>
       <c r="V87" s="1" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="W87" s="1">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="X87" s="1">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Y87" s="1">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="Z87" s="1">
         <v>0</v>
       </c>
       <c r="AA87" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AD87" s="1" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
@@ -10346,7 +10325,7 @@
         <v>10620</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
@@ -10367,10 +10346,10 @@
         <v>0.94</v>
       </c>
       <c r="I88" s="1">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J88" s="1">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="K88" s="1">
         <v>5</v>
@@ -10379,75 +10358,75 @@
         <v>0</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="T88" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="U88" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="W88" s="1">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="X88" s="1">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Y88" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Z88" s="1">
         <v>0</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>10620</v>
+        <v>10621</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="C89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" s="2">
         <v>35558</v>
@@ -10456,19 +10435,19 @@
         <v>35470</v>
       </c>
       <c r="F89" s="2">
-        <v>35656</v>
+        <v>35742</v>
       </c>
       <c r="G89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" s="1">
-        <v>0.94</v>
+        <v>23.73</v>
       </c>
       <c r="I89" s="1">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J89" s="1">
-        <v>7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K89" s="1">
         <v>5</v>
@@ -10477,162 +10456,162 @@
         <v>0</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="T89" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="U89" s="1">
+        <v>3</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W89" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X89" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="1">
         <v>5</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="W89" s="1">
-        <v>7</v>
-      </c>
-      <c r="X89" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y89" s="1">
-        <v>38</v>
-      </c>
-      <c r="Z89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="1">
-        <v>25</v>
-      </c>
       <c r="AB89" s="1">
         <v>0</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>10621</v>
+        <v>10624</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="C90" s="1">
         <v>4</v>
       </c>
       <c r="D90" s="2">
-        <v>35558</v>
+        <v>35619</v>
       </c>
       <c r="E90" s="2">
-        <v>35470</v>
+        <v>35529</v>
       </c>
       <c r="F90" s="2">
-        <v>35742</v>
+        <v>35661</v>
       </c>
       <c r="G90" s="1">
         <v>2</v>
       </c>
       <c r="H90" s="1">
-        <v>23.73</v>
+        <v>94.8</v>
       </c>
       <c r="I90" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J90" s="1">
-        <v>9.1999999999999993</v>
+        <v>45.6</v>
       </c>
       <c r="K90" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L90" s="1">
         <v>0</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="P90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q90" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q90" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="R90" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="T90" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U90" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="W90" s="1">
-        <v>9.1999999999999993</v>
+        <v>45.6</v>
       </c>
       <c r="X90" s="1">
-        <v>9.1999999999999993</v>
+        <v>45.6</v>
       </c>
       <c r="Y90" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z90" s="1">
         <v>0</v>
       </c>
       <c r="AA90" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
@@ -10640,7 +10619,7 @@
         <v>10624</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C91" s="1">
         <v>4</v>
@@ -10661,55 +10640,55 @@
         <v>94.8</v>
       </c>
       <c r="I91" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J91" s="1">
-        <v>45.6</v>
+        <v>123.79</v>
       </c>
       <c r="K91" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L91" s="1">
         <v>0</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q91" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q91" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="R91" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="T91" s="1">
         <v>12</v>
       </c>
       <c r="U91" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="W91" s="1">
-        <v>45.6</v>
+        <v>123.79</v>
       </c>
       <c r="X91" s="1">
-        <v>45.6</v>
+        <v>123.79</v>
       </c>
       <c r="Y91" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="1">
         <v>0</v>
@@ -10721,16 +10700,16 @@
         <v>1</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="AD91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF91" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="AE91" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF91" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
@@ -10738,7 +10717,7 @@
         <v>10624</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C92" s="1">
         <v>4</v>
@@ -10759,111 +10738,111 @@
         <v>94.8</v>
       </c>
       <c r="I92" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J92" s="1">
-        <v>123.79</v>
+        <v>19.45</v>
       </c>
       <c r="K92" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L92" s="1">
         <v>0</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q92" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q92" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="R92" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="T92" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U92" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="W92" s="1">
-        <v>123.79</v>
+        <v>19.45</v>
       </c>
       <c r="X92" s="1">
-        <v>123.79</v>
+        <v>19.45</v>
       </c>
       <c r="Y92" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z92" s="1">
         <v>0</v>
       </c>
       <c r="AA92" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>10624</v>
+        <v>10625</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C93" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" s="2">
-        <v>35619</v>
+        <v>35650</v>
       </c>
       <c r="E93" s="2">
-        <v>35529</v>
+        <v>35559</v>
       </c>
       <c r="F93" s="2">
-        <v>35661</v>
+        <v>35656</v>
       </c>
       <c r="G93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="1">
-        <v>94.8</v>
+        <v>43.9</v>
       </c>
       <c r="I93" s="1">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J93" s="1">
-        <v>19.45</v>
+        <v>23.25</v>
       </c>
       <c r="K93" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L93" s="1">
         <v>0</v>
@@ -10875,58 +10854,58 @@
         <v>278</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="T93" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="U93" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="W93" s="1">
-        <v>19.45</v>
+        <v>23.25</v>
       </c>
       <c r="X93" s="1">
-        <v>19.45</v>
+        <v>23.25</v>
       </c>
       <c r="Y93" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Z93" s="1">
         <v>0</v>
       </c>
       <c r="AA93" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB93" s="1">
         <v>0</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
@@ -10934,7 +10913,7 @@
         <v>10625</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C94" s="1">
         <v>3</v>
@@ -10955,55 +10934,55 @@
         <v>43.9</v>
       </c>
       <c r="I94" s="1">
+        <v>42</v>
+      </c>
+      <c r="J94" s="1">
         <v>14</v>
       </c>
-      <c r="J94" s="1">
-        <v>23.25</v>
-      </c>
       <c r="K94" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L94" s="1">
         <v>0</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="T94" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U94" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="W94" s="1">
-        <v>23.25</v>
+        <v>14</v>
       </c>
       <c r="X94" s="1">
-        <v>23.25</v>
+        <v>14</v>
       </c>
       <c r="Y94" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Z94" s="1">
         <v>0</v>
@@ -11012,19 +10991,19 @@
         <v>0</v>
       </c>
       <c r="AB94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
@@ -11032,7 +11011,7 @@
         <v>10625</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C95" s="1">
         <v>3</v>
@@ -11053,178 +11032,80 @@
         <v>43.9</v>
       </c>
       <c r="I95" s="1">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J95" s="1">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K95" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L95" s="1">
         <v>0</v>
       </c>
       <c r="M95" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T95" s="1">
+        <v>28</v>
+      </c>
+      <c r="U95" s="1">
+        <v>4</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W95" s="1">
+        <v>34</v>
+      </c>
+      <c r="X95" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD95" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="N95" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="T95" s="1">
-        <v>20</v>
-      </c>
-      <c r="U95" s="1">
-        <v>5</v>
-      </c>
-      <c r="V95" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W95" s="1">
-        <v>14</v>
-      </c>
-      <c r="X95" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y95" s="1">
-        <v>26</v>
-      </c>
-      <c r="Z95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB95" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC95" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD95" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AE95" s="1" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>10625</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" s="1">
-        <v>3</v>
-      </c>
-      <c r="D96" s="2">
-        <v>35650</v>
-      </c>
-      <c r="E96" s="2">
-        <v>35559</v>
-      </c>
-      <c r="F96" s="2">
-        <v>35656</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>43.9</v>
-      </c>
-      <c r="I96" s="1">
-        <v>60</v>
-      </c>
-      <c r="J96" s="1">
-        <v>34</v>
-      </c>
-      <c r="K96" s="1">
-        <v>10</v>
-      </c>
-      <c r="L96" s="1">
-        <v>0</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="T96" s="1">
-        <v>28</v>
-      </c>
-      <c r="U96" s="1">
-        <v>4</v>
-      </c>
-      <c r="V96" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="W96" s="1">
-        <v>34</v>
-      </c>
-      <c r="X96" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y96" s="1">
-        <v>19</v>
-      </c>
-      <c r="Z96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD96" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE96" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF96" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF96" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AF95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
